--- a/dataSources/WSR/CORPORATE_ACTIONS.xlsx
+++ b/dataSources/WSR/CORPORATE_ACTIONS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="538" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6815DCB-C55D-47B3-AA4C-52A53AEC56EE}"/>
+  <xr:revisionPtr revIDLastSave="556" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{234D4584-C55A-48E4-88D3-8C4B78915FAD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="11" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="18 Dec 2023" sheetId="12" r:id="rId12"/>
     <sheet name="26 Dec 2023" sheetId="15" r:id="rId13"/>
     <sheet name="2 Jan 2024" sheetId="16" r:id="rId14"/>
+    <sheet name="8 Jan 2024" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="153">
   <si>
     <t>Task Name</t>
   </si>
@@ -554,6 +555,32 @@
   </si>
   <si>
     <t>Attended Stand up call</t>
+  </si>
+  <si>
+    <t>HICA-3166 Test scenarios preparation</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t>izing and backlog refinement</t>
+    </r>
+  </si>
+  <si>
+    <t>HICA-3166 Test scearios preparation</t>
+  </si>
+  <si>
+    <t>Sprint Review &amp; Retrospective meeting</t>
+  </si>
+  <si>
+    <t>Sprint planning meeting</t>
   </si>
 </sst>
 </file>
@@ -896,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1041,6 +1068,10 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1797,14 +1828,14 @@
       <c r="B2" s="50">
         <v>3</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="60">
         <v>3</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="32" t="s">
         <v>121</v>
       </c>
@@ -1814,8 +1845,8 @@
       <c r="I2" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="32" t="s">
         <v>124</v>
       </c>
@@ -1828,17 +1859,17 @@
       <c r="O2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59" t="s">
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
       <c r="Y2" s="22" t="s">
         <v>32</v>
       </c>
@@ -1855,11 +1886,11 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="1"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="32" t="s">
         <v>55</v>
       </c>
@@ -1872,7 +1903,7 @@
       <c r="J3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="34" t="s">
         <v>76</v>
       </c>
@@ -1881,15 +1912,15 @@
       </c>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
       <c r="Y3" s="22" t="s">
         <v>40</v>
       </c>
@@ -1906,11 +1937,11 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="34" t="s">
         <v>125</v>
       </c>
@@ -1921,7 +1952,7 @@
       <c r="J4" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="34" t="s">
         <v>126</v>
       </c>
@@ -1931,16 +1962,16 @@
       <c r="N4" s="54">
         <v>45264</v>
       </c>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
       <c r="Y4" s="22" t="s">
         <v>46</v>
       </c>
@@ -1957,11 +1988,11 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="34" t="s">
         <v>127</v>
       </c>
@@ -1970,20 +2001,20 @@
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
       <c r="Y5" s="22" t="s">
         <v>49</v>
       </c>
@@ -1999,30 +2030,30 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="59"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
       <c r="Y6" s="22" t="s">
         <v>51</v>
       </c>
@@ -2038,30 +2069,30 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="59"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
       <c r="Y7" s="25" t="s">
         <v>27</v>
       </c>
@@ -2075,30 +2106,30 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="59"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
       <c r="Y8" s="26" t="s">
         <v>27</v>
       </c>
@@ -2114,30 +2145,30 @@
       <c r="AC8" s="27"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="59"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
       <c r="Y9" s="26" t="s">
         <v>27</v>
       </c>
@@ -2273,14 +2304,14 @@
       <c r="B2" s="50">
         <v>2</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="60">
         <v>13</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="32" t="s">
         <v>55</v>
       </c>
@@ -2293,7 +2324,7 @@
       <c r="J2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="59"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="55" t="s">
         <v>124</v>
       </c>
@@ -2306,17 +2337,17 @@
       <c r="O2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59" t="s">
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
       <c r="Y2" s="22" t="s">
         <v>32</v>
       </c>
@@ -2338,10 +2369,10 @@
       <c r="B3" s="52">
         <v>3</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="34" t="s">
         <v>130</v>
       </c>
@@ -2354,7 +2385,7 @@
       <c r="J3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="36" t="s">
         <v>76</v>
       </c>
@@ -2363,15 +2394,15 @@
       </c>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
       <c r="Y3" s="22" t="s">
         <v>40</v>
       </c>
@@ -2393,10 +2424,10 @@
       <c r="B4" s="52">
         <v>4</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="34" t="s">
         <v>127</v>
       </c>
@@ -2405,20 +2436,20 @@
       </c>
       <c r="I4" s="36"/>
       <c r="J4" s="38"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
       <c r="Y4" s="22" t="s">
         <v>46</v>
       </c>
@@ -2440,10 +2471,10 @@
       <c r="B5" s="52">
         <v>2</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="32" t="s">
         <v>133</v>
       </c>
@@ -2456,20 +2487,20 @@
       <c r="J5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
       <c r="Y5" s="22" t="s">
         <v>49</v>
       </c>
@@ -2491,10 +2522,10 @@
       <c r="B6" s="52">
         <v>1</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="34" t="s">
         <v>128</v>
       </c>
@@ -2507,20 +2538,20 @@
       <c r="J6" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
       <c r="Y6" s="22" t="s">
         <v>51</v>
       </c>
@@ -2542,10 +2573,10 @@
       <c r="B7" s="52">
         <v>1</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="34" t="s">
         <v>129</v>
       </c>
@@ -2558,20 +2589,20 @@
       <c r="J7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
       <c r="Y7" s="25" t="s">
         <v>27</v>
       </c>
@@ -2585,12 +2616,12 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="30.75">
-      <c r="A8" s="59"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="34" t="s">
         <v>131</v>
       </c>
@@ -2603,20 +2634,20 @@
       <c r="J8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
       <c r="Y8" s="26" t="s">
         <v>27</v>
       </c>
@@ -2632,12 +2663,12 @@
       <c r="AC8" s="27"/>
     </row>
     <row r="9" spans="1:29" ht="30.75">
-      <c r="A9" s="59"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="34" t="s">
         <v>135</v>
       </c>
@@ -2650,20 +2681,20 @@
       <c r="J9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
       <c r="Y9" s="26" t="s">
         <v>27</v>
       </c>
@@ -2679,12 +2710,12 @@
       <c r="AC9" s="27"/>
     </row>
     <row r="10" spans="1:29" ht="30.75">
-      <c r="A10" s="59"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="34" t="s">
         <v>136</v>
       </c>
@@ -2697,33 +2728,33 @@
       <c r="J10" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
     </row>
     <row r="11" spans="1:29" ht="30.75">
-      <c r="A11" s="59"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="34" t="s">
         <v>137</v>
       </c>
@@ -2736,33 +2767,33 @@
       <c r="J11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
     </row>
     <row r="12" spans="1:29" ht="30.75">
-      <c r="A12" s="59"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="34" t="s">
         <v>132</v>
       </c>
@@ -2775,33 +2806,33 @@
       <c r="J12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
     </row>
     <row r="13" spans="1:29" ht="30.75">
-      <c r="A13" s="59"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="34" t="s">
         <v>138</v>
       </c>
@@ -2812,56 +2843,56 @@
         <v>45274</v>
       </c>
       <c r="J13" s="36"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="59"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2984,42 +3015,42 @@
       <c r="B2" s="50">
         <v>2</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="60">
         <v>14</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="1" t="s">
         <v>97</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59" t="s">
+      <c r="N2" s="62"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
       <c r="Y2" s="22" t="s">
         <v>32</v>
       </c>
@@ -3041,36 +3072,36 @@
       <c r="B3" s="52">
         <v>4</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="57" t="s">
         <v>76</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
       <c r="Y3" s="22" t="s">
         <v>40</v>
       </c>
@@ -3092,36 +3123,36 @@
       <c r="B4" s="52">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
       <c r="Y4" s="22" t="s">
         <v>46</v>
       </c>
@@ -3138,29 +3169,29 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
       <c r="Y5" s="22" t="s">
         <v>49</v>
       </c>
@@ -3176,30 +3207,30 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="59"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
       <c r="Y6" s="22" t="s">
         <v>51</v>
       </c>
@@ -3215,30 +3246,30 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="59"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
       <c r="Y7" s="25" t="s">
         <v>27</v>
       </c>
@@ -3254,30 +3285,30 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="59"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
       <c r="Y8" s="26" t="s">
         <v>27</v>
       </c>
@@ -3295,30 +3326,30 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="59"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
       <c r="Y9" s="26" t="s">
         <v>27</v>
       </c>
@@ -3456,23 +3487,23 @@
       <c r="B2" s="50">
         <v>3</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="60">
         <v>9.5</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="55" t="s">
         <v>124</v>
       </c>
@@ -3485,17 +3516,17 @@
       <c r="O2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59" t="s">
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
       <c r="Y2" s="22" t="s">
         <v>32</v>
       </c>
@@ -3517,15 +3548,15 @@
       <c r="B3" s="52">
         <v>4.5</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="36" t="s">
         <v>76</v>
       </c>
@@ -3534,15 +3565,15 @@
       </c>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
       <c r="Y3" s="22" t="s">
         <v>40</v>
       </c>
@@ -3564,28 +3595,28 @@
       <c r="B4" s="52">
         <v>6</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
       <c r="Y4" s="22" t="s">
         <v>46</v>
       </c>
@@ -3602,29 +3633,29 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
       <c r="Y5" s="22" t="s">
         <v>49</v>
       </c>
@@ -3640,30 +3671,30 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="59"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
       <c r="Y6" s="22" t="s">
         <v>51</v>
       </c>
@@ -3679,30 +3710,30 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="59"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
       <c r="Y7" s="25" t="s">
         <v>27</v>
       </c>
@@ -3718,30 +3749,30 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="59"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
       <c r="Y8" s="26" t="s">
         <v>27</v>
       </c>
@@ -3759,30 +3790,30 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="59"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
       <c r="Y9" s="26" t="s">
         <v>27</v>
       </c>
@@ -3808,7 +3839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6FAE2C-B0F5-47D8-854F-03F354215233}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
@@ -3920,23 +3951,23 @@
       <c r="B2" s="50">
         <v>0.5</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="60">
         <v>0.5</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="30" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="55" t="s">
         <v>124</v>
       </c>
@@ -3949,17 +3980,17 @@
       <c r="O2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59" t="s">
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
       <c r="Y2" s="22" t="s">
         <v>32</v>
       </c>
@@ -3977,15 +4008,15 @@
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="53"/>
       <c r="B3" s="52"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="36" t="s">
         <v>76</v>
       </c>
@@ -3994,15 +4025,15 @@
       </c>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
       <c r="Y3" s="22" t="s">
         <v>40</v>
       </c>
@@ -4020,28 +4051,28 @@
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="53"/>
       <c r="B4" s="52"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
       <c r="Y4" s="22" t="s">
         <v>46</v>
       </c>
@@ -4058,29 +4089,29 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
       <c r="Y5" s="22" t="s">
         <v>49</v>
       </c>
@@ -4096,30 +4127,30 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="59"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
       <c r="Y6" s="22" t="s">
         <v>51</v>
       </c>
@@ -4135,30 +4166,30 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="59"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
       <c r="Y7" s="25" t="s">
         <v>27</v>
       </c>
@@ -4174,30 +4205,30 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="59"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
       <c r="Y8" s="26" t="s">
         <v>27</v>
       </c>
@@ -4215,30 +4246,524 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="59"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC9" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6724893F-E8A3-4F47-9556-9D519FBD597B}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="8"/>
+    <col min="7" max="7" width="73.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="8"/>
+    <col min="12" max="12" width="89.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="8"/>
+    <col min="18" max="18" width="65.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="12" customFormat="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="45.75">
+      <c r="A2" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="50">
+        <v>3.5</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="60">
+        <v>7.5</v>
+      </c>
+      <c r="F2" s="61"/>
+      <c r="G2" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="61"/>
+      <c r="L2" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="52">
+        <v>4</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="61"/>
+      <c r="L3" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="36"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="53"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="61"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="61"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC6" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="61"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="61"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC8" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="61"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
       <c r="Y9" s="26" t="s">
         <v>27</v>
       </c>
@@ -6169,45 +6694,45 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="60">
         <v>6.5</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="60">
         <v>7.5</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="1" t="s">
         <v>97</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59" t="s">
+      <c r="N2" s="62"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
       <c r="Y2" s="22" t="s">
         <v>32</v>
       </c>
@@ -6226,39 +6751,39 @@
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="60">
         <v>1</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="1" t="s">
         <v>100</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
       <c r="Y3" s="22" t="s">
         <v>40</v>
       </c>
@@ -6274,34 +6799,34 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="59"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
       <c r="Y4" s="22" t="s">
         <v>46</v>
       </c>
@@ -6317,30 +6842,30 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="59"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
       <c r="Y5" s="22" t="s">
         <v>49</v>
       </c>
@@ -6356,30 +6881,30 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="59"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
       <c r="Y6" s="22" t="s">
         <v>51</v>
       </c>
@@ -6395,30 +6920,30 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="59"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
       <c r="Y7" s="25" t="s">
         <v>27</v>
       </c>
@@ -6432,30 +6957,30 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="59"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
       <c r="Y8" s="26" t="s">
         <v>27</v>
       </c>
@@ -6471,30 +6996,30 @@
       <c r="AC8" s="27"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="59"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
       <c r="Y9" s="26" t="s">
         <v>27</v>
       </c>
@@ -6965,45 +7490,45 @@
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="60">
         <v>6</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="60">
         <v>12.5</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="1" t="s">
         <v>97</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59" t="s">
+      <c r="N2" s="62"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
       <c r="Y2" s="22" t="s">
         <v>32</v>
       </c>
@@ -7022,39 +7547,39 @@
       <c r="A3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="60">
         <v>0.5</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="1" t="s">
         <v>100</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
       <c r="Y3" s="22" t="s">
         <v>40</v>
       </c>
@@ -7073,35 +7598,35 @@
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="60">
         <v>2</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
       <c r="Y4" s="22" t="s">
         <v>46</v>
       </c>
@@ -7120,31 +7645,31 @@
       <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="60">
         <v>4</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
       <c r="Y5" s="22" t="s">
         <v>49</v>
       </c>
@@ -7160,30 +7685,30 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="59"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
       <c r="Y6" s="22" t="s">
         <v>51</v>
       </c>
@@ -7199,30 +7724,30 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="59"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
       <c r="Y7" s="25" t="s">
         <v>27</v>
       </c>
@@ -7236,30 +7761,30 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="59"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
       <c r="Y8" s="26" t="s">
         <v>27</v>
       </c>
@@ -7275,30 +7800,30 @@
       <c r="AC8" s="27"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="59"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
       <c r="Y9" s="26" t="s">
         <v>27</v>
       </c>

--- a/dataSources/WSR/CORPORATE_ACTIONS.xlsx
+++ b/dataSources/WSR/CORPORATE_ACTIONS.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="556" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{234D4584-C55A-48E4-88D3-8C4B78915FAD}"/>
+  <xr:revisionPtr revIDLastSave="600" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B159E512-1732-4624-8062-F4AC1B0F5CEF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2 Oct 2023" sheetId="11" r:id="rId1"/>
-    <sheet name="9 Oct 2023" sheetId="10" r:id="rId2"/>
-    <sheet name="16 Oct 2023" sheetId="9" r:id="rId3"/>
-    <sheet name="23 Oct 2023" sheetId="8" r:id="rId4"/>
-    <sheet name="30 Oct 2023" sheetId="7" r:id="rId5"/>
-    <sheet name="6 Nov 2023" sheetId="1" r:id="rId6"/>
-    <sheet name="13 Nov 2023" sheetId="2" r:id="rId7"/>
-    <sheet name="20 Nov 2023" sheetId="5" r:id="rId8"/>
-    <sheet name="27 Nov 2023" sheetId="6" r:id="rId9"/>
-    <sheet name="4 Dec 2023" sheetId="14" r:id="rId10"/>
-    <sheet name="11 Dec 2023" sheetId="13" r:id="rId11"/>
-    <sheet name="18 Dec 2023" sheetId="12" r:id="rId12"/>
-    <sheet name="26 Dec 2023" sheetId="15" r:id="rId13"/>
-    <sheet name="2 Jan 2024" sheetId="16" r:id="rId14"/>
-    <sheet name="8 Jan 2024" sheetId="17" r:id="rId15"/>
+    <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
+    <sheet name="9 Oct 2023" sheetId="9" r:id="rId2"/>
+    <sheet name="16 Oct 2023" sheetId="8" r:id="rId3"/>
+    <sheet name="23 Oct 2023" sheetId="7" r:id="rId4"/>
+    <sheet name="30 Oct 2023" sheetId="1" r:id="rId5"/>
+    <sheet name="6 Nov 2023" sheetId="2" r:id="rId6"/>
+    <sheet name="13 Nov 2023" sheetId="5" r:id="rId7"/>
+    <sheet name="20 Nov 2023" sheetId="6" r:id="rId8"/>
+    <sheet name="27 Nov 2023" sheetId="14" r:id="rId9"/>
+    <sheet name="4 Dec 2023" sheetId="13" r:id="rId10"/>
+    <sheet name="11 Dec 2023" sheetId="12" r:id="rId11"/>
+    <sheet name="18 Dec 2023" sheetId="15" r:id="rId12"/>
+    <sheet name="26 Dec 2023" sheetId="16" r:id="rId13"/>
+    <sheet name="2 Jan 2024" sheetId="17" r:id="rId14"/>
+    <sheet name="8 Jan 2024" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="140">
   <si>
     <t>Task Name</t>
   </si>
@@ -121,159 +121,105 @@
     <t>Total Count</t>
   </si>
   <si>
-    <t>KT on CSaaS</t>
+    <t>call with Hrushi  Overview for HICA 853</t>
   </si>
   <si>
     <t>Ayesha Shaik</t>
   </si>
   <si>
-    <t>1.HICA-2506-Convert Do not Reply to actual email addresses in IP upload</t>
-  </si>
-  <si>
-    <t>In Progress</t>
+    <t>Attended Daily Standup calls</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
   <si>
     <t> </t>
   </si>
   <si>
-    <t> Dev in progress</t>
+    <t>Attend Sprint Review and Retrospective Meeting</t>
+  </si>
+  <si>
+    <t>Yet to attend</t>
+  </si>
+  <si>
+    <t>No defect logged for the week</t>
+  </si>
+  <si>
+    <t>Manual created</t>
+  </si>
+  <si>
+    <t>Total manual</t>
+  </si>
+  <si>
+    <t>Analysed the HICA-853</t>
+  </si>
+  <si>
+    <t>Venkateswaran. Karuppian Ganesan</t>
+  </si>
+  <si>
+    <t>Sprint Review and Retrospective meeting</t>
+  </si>
+  <si>
+    <t>Attend Spring Planning call</t>
+  </si>
+  <si>
+    <t>Manual execution</t>
+  </si>
+  <si>
+    <t>Total manual execution</t>
+  </si>
+  <si>
+    <t>Prepared Testcases for HICA-853</t>
+  </si>
+  <si>
+    <t>Hrushikesh</t>
+  </si>
+  <si>
+    <t>Sprint Planning meeting</t>
+  </si>
+  <si>
+    <t>Attend Weekly Call with Business</t>
+  </si>
+  <si>
+    <t>Automation created</t>
+  </si>
+  <si>
+    <t>Total automation</t>
+  </si>
+  <si>
+    <t>Database  Issues  connected with Sibin</t>
+  </si>
+  <si>
+    <t>HICA-2596:Test case Prepared</t>
+  </si>
+  <si>
+    <t>HICA-1909: Test Scenario Execution</t>
   </si>
   <si>
     <t>Yet to start</t>
   </si>
   <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF242424"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Dev in progress</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">No defects logged </t>
-  </si>
-  <si>
-    <t>Manual created</t>
-  </si>
-  <si>
-    <t>Total manual</t>
-  </si>
-  <si>
-    <t>Internal call on CSaaS</t>
-  </si>
-  <si>
-    <t>Hrushikesh</t>
-  </si>
-  <si>
-    <t>2.Attended Retrospective and planning sessions</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>2.HICA-853-Golden interface changes</t>
-  </si>
-  <si>
-    <t>Dev in progress</t>
-  </si>
-  <si>
-    <t>Manual execution</t>
-  </si>
-  <si>
-    <t>Total manual execution</t>
-  </si>
-  <si>
-    <t>Connect with Sibin on HICA_853(CSaaS)</t>
-  </si>
-  <si>
-    <t>3.Knowledge transfer to Ayesha and venkat</t>
-  </si>
-  <si>
-    <t>3.Sprint sizing session and backlog refinement</t>
-  </si>
-  <si>
-    <t>Yet to attend</t>
-  </si>
-  <si>
-    <t>Automation created</t>
-  </si>
-  <si>
-    <t>Total automation</t>
-  </si>
-  <si>
-    <t>WSR</t>
-  </si>
-  <si>
     <t>Automation execution</t>
   </si>
   <si>
     <t>Total automation execution</t>
   </si>
   <si>
+    <t>Call with Sibin</t>
+  </si>
+  <si>
     <t>Bugs Identified</t>
   </si>
   <si>
     <t>Total bugs</t>
   </si>
   <si>
+    <t>Call with Hrushikesh to support o job run</t>
+  </si>
+  <si>
     <t>Automation coverage %</t>
   </si>
   <si>
-    <t>call with Hrushi  Overview for HICA 853</t>
-  </si>
-  <si>
-    <t>Attended Daily Standup calls</t>
-  </si>
-  <si>
-    <t>Attend Sprint Review and Retrospective Meeting</t>
-  </si>
-  <si>
-    <t>No defects logged for the week</t>
-  </si>
-  <si>
-    <t>Analysed the HICA-853</t>
-  </si>
-  <si>
-    <t>Venkateswaran. Karuppian Ganesan</t>
-  </si>
-  <si>
-    <t>Sprint Review and Retrospective meeting</t>
-  </si>
-  <si>
-    <t>Attend Spring Planning call</t>
-  </si>
-  <si>
-    <t>Prepared Testcases for HICA-853</t>
-  </si>
-  <si>
-    <t>Sprint Planning meeting</t>
-  </si>
-  <si>
-    <t>Attend Weekly Call with Business</t>
-  </si>
-  <si>
-    <t>Database  Issues  connected with Sibin</t>
-  </si>
-  <si>
-    <t>HICA-2596:Test case Prepared</t>
-  </si>
-  <si>
-    <t>HICA-1909: Test Scenario Execution</t>
-  </si>
-  <si>
-    <t>Call with Sibin</t>
-  </si>
-  <si>
-    <t>Call with Hrushikesh to support o job run</t>
-  </si>
-  <si>
     <t>HICA-853 Executed testing</t>
   </si>
   <si>
@@ -281,9 +227,6 @@
   </si>
   <si>
     <t>Attend Sprint Sizing and Backlog Refinement call</t>
-  </si>
-  <si>
-    <t>No defects logged</t>
   </si>
   <si>
     <t>Executed the test Scenario for HICA-853</t>
@@ -446,10 +389,10 @@
     <t>HICA-2925 Test cases Execution</t>
   </si>
   <si>
+    <t>In Progress</t>
+  </si>
+  <si>
     <t>HICA-2925 Test scenarios executi</t>
-  </si>
-  <si>
-    <t>No defect logged for the week</t>
   </si>
   <si>
     <t>Updation of Test scenarios and Test cases for Tier-2</t>
@@ -582,12 +525,18 @@
   <si>
     <t>Sprint planning meeting</t>
   </si>
+  <si>
+    <t>HICA-3166 Test cases Execution</t>
+  </si>
+  <si>
+    <t>Sizing and Backlog Refinement meeting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,16 +630,26 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Inherit"/>
+      <name val="Segoe UI"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -923,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -995,9 +954,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1007,13 +963,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1063,15 +1013,35 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1360,14 +1330,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1CB737-9DFC-4B2B-A715-58DF38E446C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F866D1-8A06-4D8F-8455-603452CDEA98}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="V5" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1397,8 +1367,8 @@
     <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="8.85546875" style="4"/>
-    <col min="28" max="28" width="16.7109375" style="4" customWidth="1"/>
-    <col min="29" max="29" width="13.85546875" style="4" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" style="4" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" style="4" customWidth="1"/>
     <col min="30" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
@@ -1474,147 +1444,157 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="45.75">
       <c r="A2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="30">
-        <v>6</v>
+      <c r="B2" s="5">
+        <v>0.5</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="31" t="s">
+        <v>7.5</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="34" t="s">
+      <c r="I2" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="36"/>
+      <c r="N2" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="O2" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="Y2" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>32</v>
       </c>
       <c r="Z2" s="23">
         <v>3</v>
       </c>
       <c r="AA2" s="24"/>
       <c r="AB2" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="23">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="30">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="5">
-        <v>5</v>
-      </c>
-      <c r="G3" s="31" t="s">
+      <c r="H3" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="M3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="Z3" s="23">
         <v>3</v>
       </c>
       <c r="AA3" s="24"/>
       <c r="AB3" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="23">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="30">
-        <v>1</v>
-      </c>
-      <c r="G4" s="31" t="s">
+      <c r="M4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="35">
-        <v>45203</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="38"/>
-      <c r="Y4" s="22" t="s">
-        <v>46</v>
       </c>
       <c r="Z4" s="23">
         <v>0</v>
       </c>
       <c r="AA4" s="24"/>
       <c r="AB4" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="23">
         <v>0</v>
@@ -1622,11 +1602,29 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="L5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="30">
-        <v>0.5</v>
-      </c>
+      <c r="N5" s="41">
+        <v>45239</v>
+      </c>
+      <c r="O5" s="40"/>
       <c r="Y5" s="22" t="s">
         <v>49</v>
       </c>
@@ -1642,22 +1640,37 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="3"/>
+      <c r="A6" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
       <c r="Y6" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="23">
         <v>0</v>
       </c>
       <c r="AA6" s="24"/>
       <c r="AB6" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
       <c r="Y7" s="25" t="s">
         <v>27</v>
       </c>
@@ -1666,13 +1679,19 @@
       </c>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" ht="30.75">
+      <c r="A8" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="5">
+        <v>8</v>
+      </c>
       <c r="Y8" s="26" t="s">
         <v>27</v>
       </c>
@@ -1713,482 +1732,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4AAF4F-5CF1-4160-B06D-60C519E08F9C}">
-  <dimension ref="A1:AC9"/>
-  <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="73.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="8"/>
-    <col min="12" max="12" width="89.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="8"/>
-    <col min="18" max="18" width="65.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="30.75">
-      <c r="A2" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="50">
-        <v>3</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="60">
-        <v>3</v>
-      </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="23">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="23">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="1"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="23">
-        <v>8</v>
-      </c>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="23">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="N4" s="54">
-        <v>45264</v>
-      </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC4" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC5" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="61"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z6" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC6" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="61"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC7" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="61"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC8" s="27"/>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="61"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="27"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436EB9FA-52AE-4AD4-9F71-F53D4D7CFCF9}">
   <dimension ref="A1:AC14"/>
   <sheetViews>
@@ -2298,65 +1841,65 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="33">
-      <c r="A2" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="50">
+      <c r="A2" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="47">
         <v>2</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="67">
         <v>13</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="68"/>
+      <c r="L2" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
       <c r="Y2" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="23">
         <v>4</v>
       </c>
       <c r="AA2" s="24"/>
       <c r="AB2" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="23">
         <v>87</v>
@@ -2364,54 +1907,54 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="52">
+        <v>114</v>
+      </c>
+      <c r="B3" s="49">
         <v>3</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="34" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="68"/>
+      <c r="L3" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="Z3" s="23">
         <v>4</v>
       </c>
       <c r="AA3" s="24"/>
       <c r="AB3" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="23">
         <v>87</v>
@@ -2419,46 +1962,46 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="52">
+        <v>116</v>
+      </c>
+      <c r="B4" s="49">
         <v>4</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
       <c r="Y4" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="23">
         <v>0</v>
       </c>
       <c r="AA4" s="24"/>
       <c r="AB4" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="23">
         <v>0</v>
@@ -2466,41 +2009,41 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="52">
+        <v>117</v>
+      </c>
+      <c r="B5" s="49">
         <v>2</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
       <c r="Y5" s="22" t="s">
         <v>49</v>
       </c>
@@ -2517,50 +2060,50 @@
     </row>
     <row r="6" spans="1:29" ht="30.75">
       <c r="A6" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="52">
+        <v>51</v>
+      </c>
+      <c r="B6" s="49">
         <v>1</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
       <c r="Y6" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="23">
         <v>0</v>
       </c>
       <c r="AA6" s="24"/>
       <c r="AB6" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6" s="23">
         <v>1</v>
@@ -2568,86 +2111,86 @@
     </row>
     <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="52">
+        <v>119</v>
+      </c>
+      <c r="B7" s="49">
         <v>1</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
       <c r="Y7" s="25" t="s">
         <v>27</v>
       </c>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="30.75">
-      <c r="A8" s="61"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
       <c r="Y8" s="26" t="s">
         <v>27</v>
       </c>
@@ -2663,38 +2206,38 @@
       <c r="AC8" s="27"/>
     </row>
     <row r="9" spans="1:29" ht="30.75">
-      <c r="A9" s="61"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
       <c r="Y9" s="26" t="s">
         <v>27</v>
       </c>
@@ -2710,200 +2253,200 @@
       <c r="AC9" s="27"/>
     </row>
     <row r="10" spans="1:29" ht="30.75">
-      <c r="A10" s="61"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="61"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
     </row>
     <row r="11" spans="1:29" ht="30.75">
-      <c r="A11" s="61"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="61"/>
-      <c r="AC11" s="61"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
     </row>
     <row r="12" spans="1:29" ht="30.75">
-      <c r="A12" s="61"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
     </row>
     <row r="13" spans="1:29" ht="30.75">
-      <c r="A13" s="61"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13" s="54">
+      <c r="A13" s="68"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="51">
         <v>45274</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="61"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B89BFD8-A42D-4DA9-8F9C-388471437985}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
@@ -3009,159 +2552,159 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="45.75">
-      <c r="A2" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="50">
+      <c r="A2" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="47">
         <v>2</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="67">
         <v>14</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
+        <v>29</v>
+      </c>
+      <c r="N2" s="69"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
       <c r="Y2" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="23">
         <v>4</v>
       </c>
       <c r="AA2" s="24"/>
       <c r="AB2" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="23">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="52">
+      <c r="A3" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="49">
         <v>4</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="61" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N3" s="69"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="Z3" s="23">
         <v>4</v>
       </c>
       <c r="AA3" s="24"/>
       <c r="AB3" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="23">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="52">
+      <c r="A4" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="49">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="M4" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
       <c r="Y4" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="23">
         <v>0</v>
       </c>
       <c r="AA4" s="24"/>
       <c r="AB4" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="23">
         <v>0</v>
@@ -3169,29 +2712,29 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
       <c r="Y5" s="22" t="s">
         <v>49</v>
       </c>
@@ -3207,69 +2750,69 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="61"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
       <c r="Y6" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="23">
         <v>0</v>
       </c>
       <c r="AA6" s="24"/>
       <c r="AB6" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="61"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
       <c r="Y7" s="25" t="s">
         <v>27</v>
       </c>
@@ -3278,37 +2821,37 @@
       </c>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="61"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
       <c r="Y8" s="26" t="s">
         <v>27</v>
       </c>
@@ -3326,30 +2869,30 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="61"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
       <c r="Y9" s="26" t="s">
         <v>27</v>
       </c>
@@ -3371,11 +2914,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CD0AF5-EFB4-4E14-8A69-7FBCEBDF9AA4}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
@@ -3481,151 +3024,151 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="45.75">
-      <c r="A2" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="50">
+      <c r="A2" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="47">
         <v>3</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="67">
         <v>9.5</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
+        <v>129</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
       <c r="Y2" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="23">
         <v>2</v>
       </c>
       <c r="AA2" s="24"/>
       <c r="AB2" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="23">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="52">
+      <c r="A3" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="49">
         <v>4.5</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
       <c r="Y3" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="23">
         <v>2</v>
       </c>
       <c r="AA3" s="24"/>
       <c r="AB3" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="23">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="52">
+      <c r="A4" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="49">
         <v>6</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
       <c r="Y4" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="23">
         <v>0</v>
       </c>
       <c r="AA4" s="24"/>
       <c r="AB4" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="23">
         <v>0</v>
@@ -3633,29 +3176,29 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
       <c r="Y5" s="22" t="s">
         <v>49</v>
       </c>
@@ -3671,69 +3214,69 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="61"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
       <c r="Y6" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="23">
         <v>0</v>
       </c>
       <c r="AA6" s="24"/>
       <c r="AB6" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="61"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
       <c r="Y7" s="25" t="s">
         <v>27</v>
       </c>
@@ -3742,37 +3285,37 @@
       </c>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="61"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
       <c r="Y8" s="26" t="s">
         <v>27</v>
       </c>
@@ -3790,30 +3333,30 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="61"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
       <c r="Y9" s="26" t="s">
         <v>27</v>
       </c>
@@ -3835,7 +3378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6FAE2C-B0F5-47D8-854F-03F354215233}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
@@ -3945,143 +3488,143 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="33">
-      <c r="A2" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="50">
+      <c r="A2" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="47">
         <v>0.5</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="67">
         <v>0.5</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="30" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
+        <v>26</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
       <c r="Y2" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="23">
         <v>0</v>
       </c>
       <c r="AA2" s="24"/>
       <c r="AB2" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="23">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="53"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
       <c r="Y3" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="23">
         <v>0</v>
       </c>
       <c r="AA3" s="24"/>
       <c r="AB3" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="23">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="53"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
       <c r="Y4" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="23">
         <v>0</v>
       </c>
       <c r="AA4" s="24"/>
       <c r="AB4" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="23">
         <v>0</v>
@@ -4089,29 +3632,29 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
       <c r="Y5" s="22" t="s">
         <v>49</v>
       </c>
@@ -4127,69 +3670,69 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="61"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
       <c r="Y6" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="23">
         <v>0</v>
       </c>
       <c r="AA6" s="24"/>
       <c r="AB6" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="61"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
       <c r="Y7" s="25" t="s">
         <v>27</v>
       </c>
@@ -4198,37 +3741,37 @@
       </c>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="61"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
       <c r="Y8" s="26" t="s">
         <v>27</v>
       </c>
@@ -4246,30 +3789,30 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="61"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
       <c r="Y9" s="26" t="s">
         <v>27</v>
       </c>
@@ -4291,12 +3834,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6724893F-E8A3-4F47-9556-9D519FBD597B}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4329,64 +3872,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="P1" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="X1" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Z1" s="20" t="s">
@@ -4401,167 +3959,967 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="45.75">
-      <c r="A2" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="50">
+      <c r="A2" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="49">
         <v>3.5</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="58">
+        <v>7.5</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="49">
+        <v>4</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC8" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC9" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D327FA-72B4-4A76-B935-E5D6BDEA8522}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="8"/>
+    <col min="7" max="7" width="73.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="8"/>
+    <col min="12" max="12" width="89.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="8"/>
+    <col min="18" max="18" width="65.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="8.85546875" style="8"/>
+    <col min="29" max="29" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="12" customFormat="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="33">
+      <c r="A2" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="47">
+        <v>7</v>
+      </c>
+      <c r="C2" s="68"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="60">
-        <v>7.5</v>
-      </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
+      <c r="E2" s="67">
+        <v>7</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="68"/>
+      <c r="L2" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
       <c r="Y2" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="23">
         <v>0</v>
       </c>
       <c r="AA2" s="24"/>
       <c r="AB2" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="23">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="52">
-        <v>4</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="32" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="34"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="22" t="s">
-        <v>40</v>
-      </c>
       <c r="Z3" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="24"/>
       <c r="AB3" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="23">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="53"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="61"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="68"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
       <c r="Y4" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="23">
         <v>0</v>
       </c>
       <c r="AA4" s="24"/>
       <c r="AB4" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="23">
         <v>0</v>
@@ -4569,37 +4927,33 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
       <c r="Y5" s="22" t="s">
         <v>49</v>
       </c>
@@ -4615,114 +4969,110 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="61"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
       <c r="Y6" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="23">
         <v>0</v>
       </c>
       <c r="AA6" s="24"/>
       <c r="AB6" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="61"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
       <c r="Y7" s="25" t="s">
         <v>27</v>
       </c>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="61"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
       <c r="Y8" s="26" t="s">
         <v>27</v>
       </c>
@@ -4740,30 +5090,30 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="61"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
       <c r="Y9" s="26" t="s">
         <v>27</v>
       </c>
@@ -4786,416 +5136,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F866D1-8A06-4D8F-8455-603452CDEA98}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:AC9"/>
-  <sheetViews>
-    <sheetView topLeftCell="T3" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.85546875" style="4"/>
-    <col min="28" max="28" width="16.5703125" style="4" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="45.75">
-      <c r="A2" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="5">
-        <v>7.5</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="23">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="23">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="23">
-        <v>3</v>
-      </c>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="23">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="5">
-        <v>8.5</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y4" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC4" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="L5" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="44">
-        <v>45239</v>
-      </c>
-      <c r="O5" s="43"/>
-      <c r="Y5" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC5" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="Y6" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z6" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC6" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="Y7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC7" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="30.75">
-      <c r="A8" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="5">
-        <v>8</v>
-      </c>
-      <c r="Y8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC8" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="Y9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD9A720-581D-4D51-808D-EF5903B25B73}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView topLeftCell="T4" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5300,8 +5248,8 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="45.75">
-      <c r="A2" s="45" t="s">
-        <v>71</v>
+      <c r="A2" s="42" t="s">
+        <v>57</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
@@ -5312,142 +5260,142 @@
       <c r="E2" s="5">
         <v>11</v>
       </c>
-      <c r="G2" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="L2" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="40" t="s">
+      <c r="G2" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="L2" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="37" t="s">
         <v>27</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="23">
         <v>0</v>
       </c>
       <c r="AA2" s="24"/>
       <c r="AB2" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="23">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="45" t="s">
-        <v>74</v>
+      <c r="A3" s="42" t="s">
+        <v>59</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5">
         <v>13.25</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="40" t="s">
+      <c r="G3" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="Z3" s="23">
         <v>0</v>
       </c>
       <c r="AA3" s="24"/>
       <c r="AB3" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="23">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="45" t="s">
-        <v>75</v>
+      <c r="A4" s="42" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="38"/>
-      <c r="L4" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
+      <c r="G4" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="L4" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
       <c r="Y4" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="23">
         <v>0</v>
       </c>
       <c r="AA4" s="24"/>
       <c r="AB4" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="45" t="s">
-        <v>68</v>
+      <c r="A5" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="5">
         <v>0.25</v>
@@ -5467,29 +5415,29 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="45.75">
-      <c r="A6" s="45" t="s">
-        <v>77</v>
+      <c r="A6" s="42" t="s">
+        <v>62</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="23">
         <v>0</v>
       </c>
       <c r="AA6" s="24"/>
       <c r="AB6" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="46" t="s">
-        <v>78</v>
+      <c r="A7" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -5502,15 +5450,15 @@
       </c>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="30.75">
-      <c r="A8" s="47" t="s">
-        <v>79</v>
+      <c r="A8" s="44" t="s">
+        <v>64</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -5530,8 +5478,8 @@
       <c r="AC8" s="27"/>
     </row>
     <row r="9" spans="1:29" ht="45.75">
-      <c r="A9" s="48" t="s">
-        <v>80</v>
+      <c r="A9" s="45" t="s">
+        <v>65</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -5553,16 +5501,16 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="30.75">
-      <c r="A10" s="45" t="s">
-        <v>81</v>
+      <c r="A10" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="B10" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="45.75">
-      <c r="A11" s="45" t="s">
-        <v>82</v>
+      <c r="A11" s="42" t="s">
+        <v>67</v>
       </c>
       <c r="B11" s="5">
         <v>6</v>
@@ -5574,15 +5522,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B451BE4-F016-4F67-8445-D54A232586E4}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="V3" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5688,7 +5636,7 @@
     </row>
     <row r="2" spans="1:29" ht="45.75">
       <c r="A2" s="29" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B2" s="30">
         <v>3</v>
@@ -5699,42 +5647,42 @@
       <c r="E2" s="5">
         <v>5</v>
       </c>
-      <c r="G2" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="40" t="s">
+      <c r="G2" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="37" t="s">
         <v>27</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="23">
         <v>3</v>
       </c>
       <c r="AA2" s="24"/>
       <c r="AB2" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="23">
         <v>54</v>
@@ -5742,50 +5690,50 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="29" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B3" s="30">
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="40" t="s">
+      <c r="G3" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="Z3" s="23">
         <v>3</v>
       </c>
       <c r="AA3" s="24"/>
       <c r="AB3" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="23">
         <v>54</v>
@@ -5793,44 +5741,44 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="29" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B4" s="30">
         <v>2</v>
       </c>
-      <c r="G4" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="40" t="s">
+      <c r="G4" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="37" t="s">
         <v>27</v>
       </c>
       <c r="Y4" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="23">
         <v>0</v>
       </c>
       <c r="AA4" s="24"/>
       <c r="AB4" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="23">
         <v>0</v>
@@ -5838,14 +5786,14 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="3"/>
-      <c r="G5" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="38"/>
+      <c r="G5" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="35"/>
       <c r="Y5" s="22" t="s">
         <v>49</v>
       </c>
@@ -5867,14 +5815,14 @@
       <c r="I6"/>
       <c r="J6"/>
       <c r="Y6" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="23">
         <v>0</v>
       </c>
       <c r="AA6" s="24"/>
       <c r="AB6" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6" s="23">
         <v>0</v>
@@ -5889,7 +5837,7 @@
       </c>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="23">
         <v>0</v>
@@ -5935,12 +5883,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B084B1D6-8D90-452D-8E2F-C931E1C70883}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="U3" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6046,7 +5994,7 @@
     </row>
     <row r="2" spans="1:29" ht="30.75">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5">
         <v>1.5</v>
@@ -6058,31 +6006,31 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I2" s="6"/>
       <c r="L2" s="3" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N2" s="6"/>
       <c r="R2" s="4" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="23">
         <v>0</v>
       </c>
       <c r="AA2" s="24"/>
       <c r="AB2" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="23">
         <v>54</v>
@@ -6090,39 +6038,39 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5">
         <v>0.25</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N3" s="6"/>
       <c r="Y3" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="23">
         <v>0</v>
       </c>
       <c r="AA3" s="24"/>
       <c r="AB3" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="23">
         <v>54</v>
@@ -6130,32 +6078,32 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B4" s="5">
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="Y4" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="23">
         <v>0</v>
       </c>
       <c r="AA4" s="24"/>
       <c r="AB4" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="23">
         <v>0</v>
@@ -6163,7 +6111,7 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
@@ -6184,20 +6132,20 @@
     </row>
     <row r="6" spans="1:29" ht="30.75">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5">
         <v>0.5</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="23">
         <v>0</v>
       </c>
       <c r="AA6" s="24"/>
       <c r="AB6" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6" s="23">
         <v>0</v>
@@ -6212,7 +6160,7 @@
       </c>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="23">
         <v>0</v>
@@ -6258,15 +6206,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6372,7 +6320,7 @@
     </row>
     <row r="2" spans="1:29" ht="30.75">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5">
         <v>1.5</v>
@@ -6384,31 +6332,31 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I2" s="6"/>
       <c r="L2" s="3" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N2" s="6"/>
       <c r="R2" s="4" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="23">
         <v>3</v>
       </c>
       <c r="AA2" s="24"/>
       <c r="AB2" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="23">
         <v>57</v>
@@ -6416,39 +6364,39 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5">
         <v>0.25</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N3" s="6"/>
       <c r="Y3" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="23">
         <v>3</v>
       </c>
       <c r="AA3" s="24"/>
       <c r="AB3" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="23">
         <v>57</v>
@@ -6456,32 +6404,32 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B4" s="5">
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="Y4" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="23">
         <v>0</v>
       </c>
       <c r="AA4" s="24"/>
       <c r="AB4" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="23">
         <v>0</v>
@@ -6489,7 +6437,7 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
@@ -6510,20 +6458,20 @@
     </row>
     <row r="6" spans="1:29" ht="30.75">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5">
         <v>0.5</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="23">
         <v>0</v>
       </c>
       <c r="AA6" s="24"/>
       <c r="AB6" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6" s="23">
         <v>0</v>
@@ -6536,7 +6484,7 @@
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="23">
         <v>0</v>
@@ -6578,15 +6526,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72B2673-BF78-4B8D-AE8B-BAE125E9ED60}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6692,56 +6640,56 @@
     </row>
     <row r="2" spans="1:29" ht="45.75">
       <c r="A2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="60">
+        <v>80</v>
+      </c>
+      <c r="B2" s="67">
         <v>6.5</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="60">
+        <v>81</v>
+      </c>
+      <c r="E2" s="67">
         <v>7.5</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+        <v>25</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
+        <v>83</v>
+      </c>
+      <c r="N2" s="69"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
       <c r="Y2" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="23">
         <v>4</v>
       </c>
       <c r="AA2" s="24"/>
       <c r="AB2" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="23">
         <v>61</v>
@@ -6749,123 +6697,123 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="60">
+        <v>84</v>
+      </c>
+      <c r="B3" s="67">
         <v>1</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="69"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="Z3" s="23">
         <v>4</v>
       </c>
       <c r="AA3" s="24"/>
       <c r="AB3" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="23">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="61"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
+        <v>41</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
       <c r="Y4" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="23">
         <v>0</v>
       </c>
       <c r="AA4" s="24"/>
       <c r="AB4" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="61"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
       <c r="Y5" s="22" t="s">
         <v>49</v>
       </c>
@@ -6881,106 +6829,106 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="61"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
       <c r="Y6" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="23">
         <v>0</v>
       </c>
       <c r="AA6" s="24"/>
       <c r="AB6" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="61"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
       <c r="Y7" s="25" t="s">
         <v>27</v>
       </c>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="61"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
       <c r="Y8" s="26" t="s">
         <v>27</v>
       </c>
@@ -6996,30 +6944,30 @@
       <c r="AC8" s="27"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="61"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
       <c r="Y9" s="26" t="s">
         <v>27</v>
       </c>
@@ -7039,7 +6987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEA9ED-7C04-49CA-B03F-50E5B4621E55}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -7152,7 +7100,7 @@
     </row>
     <row r="2" spans="1:29" ht="30.75">
       <c r="A2" s="14" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
@@ -7164,46 +7112,46 @@
         <v>7.5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I2" s="6"/>
       <c r="L2" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N2" s="6"/>
       <c r="Q2" s="17" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="23">
         <v>6</v>
       </c>
       <c r="AA2" s="24"/>
       <c r="AB2" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="23">
         <v>67</v>
@@ -7211,33 +7159,33 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="14" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N3" s="6"/>
       <c r="Y3" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="23">
         <v>6</v>
       </c>
       <c r="AA3" s="24"/>
       <c r="AB3" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="23">
         <v>67</v>
@@ -7245,26 +7193,26 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="14" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B4" s="5">
         <v>1.5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="Y4" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="23">
         <v>0</v>
       </c>
       <c r="AA4" s="24"/>
       <c r="AB4" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="23">
         <v>0</v>
@@ -7272,10 +7220,10 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="G5" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="Y5" s="22" t="s">
         <v>49</v>
@@ -7293,23 +7241,23 @@
     </row>
     <row r="6" spans="1:29" ht="30.75">
       <c r="G6" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I6" s="6">
         <v>45250</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="23">
         <v>1</v>
       </c>
       <c r="AA6" s="24"/>
       <c r="AB6" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6" s="23">
         <v>1</v>
@@ -7324,7 +7272,7 @@
       </c>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="23">
         <v>0</v>
@@ -7374,14 +7322,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A619C8-5FE9-42CA-9325-F9FB9C8EB25C}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
@@ -7488,56 +7436,56 @@
     </row>
     <row r="2" spans="1:29" ht="30.75">
       <c r="A2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="60">
+        <v>101</v>
+      </c>
+      <c r="B2" s="67">
         <v>6</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="67">
         <v>12.5</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+        <v>25</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
+        <v>29</v>
+      </c>
+      <c r="N2" s="69"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
       <c r="Y2" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="23">
         <v>8</v>
       </c>
       <c r="AA2" s="24"/>
       <c r="AB2" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="23">
         <v>75</v>
@@ -7545,50 +7493,50 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="60">
+        <v>102</v>
+      </c>
+      <c r="B3" s="67">
         <v>0.5</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="69"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="Z3" s="23">
         <v>8</v>
       </c>
       <c r="AA3" s="24"/>
       <c r="AB3" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="23">
         <v>75</v>
@@ -7596,46 +7544,46 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="60">
+        <v>103</v>
+      </c>
+      <c r="B4" s="67">
         <v>2</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
+        <v>41</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
       <c r="Y4" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="23">
         <v>0</v>
       </c>
       <c r="AA4" s="24"/>
       <c r="AB4" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="23">
         <v>0</v>
@@ -7643,33 +7591,33 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="60">
+        <v>104</v>
+      </c>
+      <c r="B5" s="67">
         <v>4</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
       <c r="Y5" s="22" t="s">
         <v>49</v>
       </c>
@@ -7685,106 +7633,106 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="61"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
       <c r="Y6" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="23">
         <v>0</v>
       </c>
       <c r="AA6" s="24"/>
       <c r="AB6" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="61"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
       <c r="Y7" s="25" t="s">
         <v>27</v>
       </c>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="61"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
       <c r="Y8" s="26" t="s">
         <v>27</v>
       </c>
@@ -7800,30 +7748,30 @@
       <c r="AC8" s="27"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="61"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
       <c r="Y9" s="26" t="s">
         <v>27</v>
       </c>
@@ -7846,24 +7794,485 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4AAF4F-5CF1-4160-B06D-60C519E08F9C}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="8"/>
+    <col min="7" max="7" width="73.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="8"/>
+    <col min="12" max="12" width="89.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="8"/>
+    <col min="18" max="18" width="65.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="12" customFormat="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="47">
+        <v>3</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="67">
+        <v>3</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="1"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="68"/>
+      <c r="L3" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="1"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="68"/>
+      <c r="L4" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" s="51">
+        <v>45264</v>
+      </c>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="68"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="68"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="68"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC8" s="27"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="68"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC9" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b94f7a7d878a7fecd43d2acdcd7b20">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7492081eccc3045ea9567a1b818a29ef" ns2:_="" ns3:_="">
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
     <xsd:import namespace="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
     <xsd:element name="properties">
@@ -7877,6 +8286,7 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -7900,6 +8310,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -8032,8 +8447,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F7456AA-E25E-473F-878B-9737789BB8F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B85DAC82-6D37-40D8-872F-229E61782A4D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8041,5 +8471,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{273FCE27-A107-4DD0-A754-826529061699}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F7456AA-E25E-473F-878B-9737789BB8F5}"/>
 </file>
--- a/dataSources/WSR/CORPORATE_ACTIONS.xlsx
+++ b/dataSources/WSR/CORPORATE_ACTIONS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="600" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B159E512-1732-4624-8062-F4AC1B0F5CEF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DD5B14-52ED-449A-9566-126BA7D43BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="140">
   <si>
     <t>Task Name</t>
   </si>
@@ -536,7 +536,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1336,43 +1336,43 @@
   </sheetPr>
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.85546875" style="4"/>
-    <col min="28" max="28" width="16.5703125" style="4" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.88671875" style="4"/>
+    <col min="28" max="28" width="16.5546875" style="4" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" style="4" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45.75">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>23</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>33</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>39</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A5" s="29" t="s">
         <v>45</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>51</v>
       </c>
@@ -1664,19 +1664,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="Y7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
         <v>55</v>
@@ -1685,45 +1681,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.75">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="5">
         <v>8</v>
       </c>
-      <c r="Y8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC8" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="Y9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1735,40 +1715,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436EB9FA-52AE-4AD4-9F71-F53D4D7CFCF9}">
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView topLeftCell="R5" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="73.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="8"/>
-    <col min="12" max="12" width="89.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="8"/>
-    <col min="18" max="18" width="65.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33">
+    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="48" t="s">
         <v>113</v>
       </c>
@@ -1905,7 +1885,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="25" t="s">
         <v>114</v>
       </c>
@@ -1960,7 +1940,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="25" t="s">
         <v>116</v>
       </c>
@@ -2007,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>117</v>
       </c>
@@ -2058,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>51</v>
       </c>
@@ -2109,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>119</v>
       </c>
@@ -2146,9 +2126,7 @@
       <c r="V7" s="68"/>
       <c r="W7" s="68"/>
       <c r="X7" s="68"/>
-      <c r="Y7" s="25" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y7" s="25"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
@@ -2158,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.75">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -2191,21 +2169,15 @@
       <c r="V8" s="68"/>
       <c r="W8" s="68"/>
       <c r="X8" s="68"/>
-      <c r="Y8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" ht="30.75">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -2238,21 +2210,15 @@
       <c r="V9" s="68"/>
       <c r="W9" s="68"/>
       <c r="X9" s="68"/>
-      <c r="Y9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB9" s="27"/>
       <c r="AC9" s="27"/>
     </row>
-    <row r="10" spans="1:29" ht="30.75">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="68"/>
       <c r="B10" s="67"/>
       <c r="C10" s="68"/>
@@ -2291,7 +2257,7 @@
       <c r="AB10" s="68"/>
       <c r="AC10" s="68"/>
     </row>
-    <row r="11" spans="1:29" ht="30.75">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="68"/>
       <c r="B11" s="67"/>
       <c r="C11" s="68"/>
@@ -2330,7 +2296,7 @@
       <c r="AB11" s="68"/>
       <c r="AC11" s="68"/>
     </row>
-    <row r="12" spans="1:29" ht="30.75">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="68"/>
@@ -2369,7 +2335,7 @@
       <c r="AB12" s="68"/>
       <c r="AC12" s="68"/>
     </row>
-    <row r="13" spans="1:29" ht="30.75">
+    <row r="13" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A13" s="68"/>
       <c r="B13" s="67"/>
       <c r="C13" s="68"/>
@@ -2406,7 +2372,7 @@
       <c r="AB13" s="68"/>
       <c r="AC13" s="68"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="68"/>
       <c r="B14" s="67"/>
       <c r="C14" s="68"/>
@@ -2446,40 +2412,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B89BFD8-A42D-4DA9-8F9C-388471437985}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView topLeftCell="U4" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8:AC13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="73.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="8"/>
-    <col min="12" max="12" width="89.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="8"/>
-    <col min="18" max="18" width="65.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2551,7 +2517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45.75">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>124</v>
       </c>
@@ -2608,7 +2574,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="50" t="s">
         <v>125</v>
       </c>
@@ -2659,7 +2625,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="50" t="s">
         <v>127</v>
       </c>
@@ -2710,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -2749,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -2788,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -2813,12 +2779,8 @@
       <c r="V7" s="68"/>
       <c r="W7" s="68"/>
       <c r="X7" s="68"/>
-      <c r="Y7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
         <v>55</v>
@@ -2827,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -2852,23 +2814,15 @@
       <c r="V8" s="68"/>
       <c r="W8" s="68"/>
       <c r="X8" s="68"/>
-      <c r="Y8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC8" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -2893,21 +2847,13 @@
       <c r="V9" s="68"/>
       <c r="W9" s="68"/>
       <c r="X9" s="68"/>
-      <c r="Y9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2918,40 +2864,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CD0AF5-EFB4-4E14-8A69-7FBCEBDF9AA4}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView topLeftCell="S5" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="73.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="8"/>
-    <col min="12" max="12" width="89.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="8"/>
-    <col min="18" max="18" width="65.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3023,7 +2969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45.75">
+    <row r="2" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A2" s="46" t="s">
         <v>128</v>
       </c>
@@ -3084,7 +3030,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="50" t="s">
         <v>130</v>
       </c>
@@ -3131,7 +3077,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>131</v>
       </c>
@@ -3174,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -3213,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -3252,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -3277,12 +3223,8 @@
       <c r="V7" s="68"/>
       <c r="W7" s="68"/>
       <c r="X7" s="68"/>
-      <c r="Y7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
         <v>55</v>
@@ -3291,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -3316,23 +3258,15 @@
       <c r="V8" s="68"/>
       <c r="W8" s="68"/>
       <c r="X8" s="68"/>
-      <c r="Y8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC8" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -3357,21 +3291,13 @@
       <c r="V9" s="68"/>
       <c r="W9" s="68"/>
       <c r="X9" s="68"/>
-      <c r="Y9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3382,40 +3308,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6FAE2C-B0F5-47D8-854F-03F354215233}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="73.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="8"/>
-    <col min="12" max="12" width="89.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="8"/>
-    <col min="18" max="18" width="65.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3487,7 +3413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33">
+    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="46" t="s">
         <v>132</v>
       </c>
@@ -3548,7 +3474,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="50"/>
       <c r="B3" s="49"/>
       <c r="C3" s="68"/>
@@ -3591,7 +3517,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="49"/>
       <c r="C4" s="68"/>
@@ -3630,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -3669,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -3708,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -3733,12 +3659,8 @@
       <c r="V7" s="68"/>
       <c r="W7" s="68"/>
       <c r="X7" s="68"/>
-      <c r="Y7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
         <v>55</v>
@@ -3747,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -3772,23 +3694,15 @@
       <c r="V8" s="68"/>
       <c r="W8" s="68"/>
       <c r="X8" s="68"/>
-      <c r="Y8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC8" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -3813,21 +3727,13 @@
       <c r="V9" s="68"/>
       <c r="W9" s="68"/>
       <c r="X9" s="68"/>
-      <c r="Y9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3838,40 +3744,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6724893F-E8A3-4F47-9556-9D519FBD597B}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="73.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="8"/>
-    <col min="12" max="12" width="89.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="8"/>
-    <col min="18" max="18" width="65.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -3958,7 +3864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45.75">
+    <row r="2" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
         <v>133</v>
       </c>
@@ -4045,7 +3951,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="25" t="s">
         <v>135</v>
       </c>
@@ -4055,12 +3961,8 @@
       <c r="C3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>27</v>
-      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="58" t="s">
         <v>27</v>
       </c>
@@ -4132,22 +4034,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>27</v>
-      </c>
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+      <c r="A4" s="50"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>27</v>
-      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="58" t="s">
         <v>27</v>
       </c>
@@ -4211,22 +4105,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>27</v>
-      </c>
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="64"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>27</v>
-      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="58" t="s">
         <v>27</v>
       </c>
@@ -4298,13 +4184,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>27</v>
-      </c>
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="60"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="58" t="s">
         <v>27</v>
       </c>
@@ -4385,13 +4267,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>27</v>
-      </c>
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="58" t="s">
         <v>27</v>
       </c>
@@ -4404,12 +4282,8 @@
       <c r="F7" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="66" t="s">
-        <v>27</v>
-      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
       <c r="I7" s="66" t="s">
         <v>27</v>
       </c>
@@ -4458,12 +4332,8 @@
       <c r="X7" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
         <v>55</v>
@@ -4472,13 +4342,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>27</v>
-      </c>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="60"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="58" t="s">
         <v>27</v>
       </c>
@@ -4491,12 +4357,8 @@
       <c r="F8" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="58" t="s">
-        <v>27</v>
-      </c>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
       <c r="I8" s="58" t="s">
         <v>27</v>
       </c>
@@ -4545,29 +4407,17 @@
       <c r="X8" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC8" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="58" t="s">
         <v>27</v>
       </c>
@@ -4580,12 +4430,8 @@
       <c r="F9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="58" t="s">
-        <v>27</v>
-      </c>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
       <c r="I9" s="58" t="s">
         <v>27</v>
       </c>
@@ -4634,21 +4480,13 @@
       <c r="X9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="Y9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4659,42 +4497,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D327FA-72B4-4A76-B935-E5D6BDEA8522}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView topLeftCell="R5" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8:AC17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="73.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="8"/>
-    <col min="12" max="12" width="89.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="8"/>
-    <col min="18" max="18" width="65.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="8.85546875" style="8"/>
-    <col min="29" max="29" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="8.88671875" style="8"/>
+    <col min="29" max="29" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4766,7 +4604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33">
+    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="55" t="s">
         <v>138</v>
       </c>
@@ -4831,7 +4669,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="25"/>
       <c r="B3" s="49"/>
       <c r="C3" s="68"/>
@@ -4880,7 +4718,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="50"/>
       <c r="B4" s="49"/>
       <c r="C4" s="68"/>
@@ -4925,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -4934,9 +4772,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="31"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="33" t="s">
-        <v>27</v>
-      </c>
+      <c r="I5" s="33"/>
       <c r="J5" s="33" t="s">
         <v>27</v>
       </c>
@@ -4968,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -5011,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -5036,9 +4872,7 @@
       <c r="V7" s="68"/>
       <c r="W7" s="68"/>
       <c r="X7" s="68"/>
-      <c r="Y7" s="25" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y7" s="25"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
@@ -5048,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -5073,23 +4907,15 @@
       <c r="V8" s="68"/>
       <c r="W8" s="68"/>
       <c r="X8" s="68"/>
-      <c r="Y8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC8" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -5114,21 +4940,13 @@
       <c r="V9" s="68"/>
       <c r="W9" s="68"/>
       <c r="X9" s="68"/>
-      <c r="Y9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5142,40 +4960,40 @@
   </sheetPr>
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="R5" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8:AC11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5247,7 +5065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45.75">
+    <row r="2" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A2" s="42" t="s">
         <v>57</v>
       </c>
@@ -5297,7 +5115,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>59</v>
       </c>
@@ -5348,7 +5166,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>60</v>
       </c>
@@ -5393,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>51</v>
       </c>
@@ -5414,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>62</v>
       </c>
@@ -5435,19 +5253,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="Y7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
         <v>55</v>
@@ -5456,51 +5270,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.75">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="Y8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" ht="45.75">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="Y9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="30.75">
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>66</v>
       </c>
@@ -5508,7 +5308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="45.75">
+    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>67</v>
       </c>
@@ -5529,40 +5329,40 @@
   </sheetPr>
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="S5" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5634,7 +5434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45.75">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>68</v>
       </c>
@@ -5688,7 +5488,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>69</v>
       </c>
@@ -5739,7 +5539,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>71</v>
       </c>
@@ -5784,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="73.2" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="G5" s="39" t="s">
         <v>74</v>
@@ -5808,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -5828,13 +5628,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
-      <c r="Y7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="23" t="s">
-        <v>27</v>
-      </c>
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
         <v>55</v>
@@ -5843,39 +5639,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
-      <c r="Y8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC8" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="Y9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5887,40 +5667,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B084B1D6-8D90-452D-8E2F-C931E1C70883}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="R5" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5992,7 +5772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -6036,7 +5816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
@@ -6076,7 +5856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -6109,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
@@ -6130,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -6151,13 +5931,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
-      <c r="Y7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="23" t="s">
-        <v>27</v>
-      </c>
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
         <v>55</v>
@@ -6166,39 +5942,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
-      <c r="Y8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC8" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="Y9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6213,40 +5973,40 @@
   </sheetPr>
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="R5" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6318,7 +6078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -6362,7 +6122,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
@@ -6402,7 +6162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -6435,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
@@ -6456,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -6477,10 +6237,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
-      <c r="Y7" s="25" t="s">
-        <v>27</v>
-      </c>
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Y7" s="25"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
@@ -6490,34 +6248,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
-      <c r="Y8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29">
-      <c r="Y9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB9" s="27"/>
       <c r="AC9" s="27"/>
     </row>
   </sheetData>
@@ -6533,40 +6279,40 @@
   </sheetPr>
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="R5" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="8"/>
-    <col min="4" max="4" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="8"/>
-    <col min="7" max="7" width="73.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="8"/>
-    <col min="12" max="12" width="89.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="8"/>
-    <col min="18" max="18" width="65.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6638,7 +6384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45.75">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -6695,7 +6441,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -6746,7 +6492,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="68"/>
       <c r="B4" s="67"/>
       <c r="C4" s="68"/>
@@ -6789,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="68"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -6828,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -6867,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -6892,9 +6638,7 @@
       <c r="V7" s="68"/>
       <c r="W7" s="68"/>
       <c r="X7" s="68"/>
-      <c r="Y7" s="25" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y7" s="25"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
@@ -6904,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -6929,21 +6673,15 @@
       <c r="V8" s="68"/>
       <c r="W8" s="68"/>
       <c r="X8" s="68"/>
-      <c r="Y8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -6968,18 +6706,12 @@
       <c r="V9" s="68"/>
       <c r="W9" s="68"/>
       <c r="X9" s="68"/>
-      <c r="Y9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB9" s="27"/>
       <c r="AC9" s="27"/>
     </row>
   </sheetData>
@@ -6994,39 +6726,39 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="4"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="15" customFormat="1">
+    <row r="1" spans="1:29" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -7098,7 +6830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>86</v>
       </c>
@@ -7157,7 +6889,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>94</v>
       </c>
@@ -7191,7 +6923,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>96</v>
       </c>
@@ -7218,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="G5" s="3" t="s">
         <v>98</v>
       </c>
@@ -7239,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G6" s="3" t="s">
         <v>99</v>
       </c>
@@ -7263,13 +6995,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
-      <c r="Y7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="23" t="s">
-        <v>27</v>
-      </c>
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
         <v>55</v>
@@ -7278,45 +7006,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
-      <c r="Y8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29">
-      <c r="Y9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB9" s="27"/>
       <c r="AC9" s="27"/>
     </row>
-    <row r="10" spans="1:29"/>
-    <row r="11" spans="1:29"/>
-    <row r="12" spans="1:29"/>
-    <row r="13" spans="1:29"/>
-    <row r="14" spans="1:29"/>
-    <row r="15" spans="1:29"/>
-    <row r="16" spans="1:29"/>
-    <row r="17"/>
-    <row r="18"/>
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7329,40 +7045,40 @@
   </sheetPr>
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView topLeftCell="R5" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="8"/>
-    <col min="4" max="4" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="8"/>
-    <col min="7" max="7" width="73.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="8"/>
-    <col min="12" max="12" width="89.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="8"/>
-    <col min="18" max="18" width="65.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7434,7 +7150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
@@ -7491,7 +7207,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -7542,7 +7258,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
@@ -7589,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>104</v>
       </c>
@@ -7632,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -7671,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -7696,9 +7412,7 @@
       <c r="V7" s="68"/>
       <c r="W7" s="68"/>
       <c r="X7" s="68"/>
-      <c r="Y7" s="25" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y7" s="25"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
@@ -7708,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -7733,21 +7447,15 @@
       <c r="V8" s="68"/>
       <c r="W8" s="68"/>
       <c r="X8" s="68"/>
-      <c r="Y8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -7772,18 +7480,12 @@
       <c r="V9" s="68"/>
       <c r="W9" s="68"/>
       <c r="X9" s="68"/>
-      <c r="Y9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB9" s="27"/>
       <c r="AC9" s="27"/>
     </row>
   </sheetData>
@@ -7798,40 +7500,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4AAF4F-5CF1-4160-B06D-60C519E08F9C}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="73.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="8"/>
-    <col min="12" max="12" width="89.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="8"/>
-    <col min="18" max="18" width="65.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7903,7 +7605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>105</v>
       </c>
@@ -7966,7 +7668,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="67"/>
       <c r="C3" s="68"/>
@@ -8017,7 +7719,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="67"/>
       <c r="C4" s="68"/>
@@ -8068,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -8111,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -8150,7 +7852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -8175,9 +7877,7 @@
       <c r="V7" s="68"/>
       <c r="W7" s="68"/>
       <c r="X7" s="68"/>
-      <c r="Y7" s="25" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y7" s="25"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="22" t="s">
@@ -8187,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -8212,21 +7912,15 @@
       <c r="V8" s="68"/>
       <c r="W8" s="68"/>
       <c r="X8" s="68"/>
-      <c r="Y8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -8251,18 +7945,12 @@
       <c r="V9" s="68"/>
       <c r="W9" s="68"/>
       <c r="X9" s="68"/>
-      <c r="Y9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB9" s="27"/>
       <c r="AC9" s="27"/>
     </row>
   </sheetData>
@@ -8271,6 +7959,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -8447,29 +8150,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B85DAC82-6D37-40D8-872F-229E61782A4D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9967719E-0079-45C5-80F3-9A16D1595D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9967719E-0079-45C5-80F3-9A16D1595D17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F7456AA-E25E-473F-878B-9737789BB8F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F7456AA-E25E-473F-878B-9737789BB8F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B85DAC82-6D37-40D8-872F-229E61782A4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
+    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/CORPORATE_ACTIONS.xlsx
+++ b/dataSources/WSR/CORPORATE_ACTIONS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DD5B14-52ED-449A-9566-126BA7D43BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB75AC6-92A1-4EDC-BC18-2EDDF692C869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="141">
   <si>
     <t>Task Name</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>Sizing and Backlog Refinement meeting</t>
+  </si>
+  <si>
+    <t>Project Metrics</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1339,7 @@
   </sheetPr>
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -4497,8 +4500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D327FA-72B4-4A76-B935-E5D6BDEA8522}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="R5" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8:AC17"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4598,7 +4601,7 @@
       </c>
       <c r="AA1" s="21"/>
       <c r="AB1" s="19" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="AC1" s="20" t="s">
         <v>22</v>
@@ -7959,21 +7962,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -8150,24 +8138,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9967719E-0079-45C5-80F3-9A16D1595D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F7456AA-E25E-473F-878B-9737789BB8F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B85DAC82-6D37-40D8-872F-229E61782A4D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8184,4 +8170,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F7456AA-E25E-473F-878B-9737789BB8F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9967719E-0079-45C5-80F3-9A16D1595D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/CORPORATE_ACTIONS.xlsx
+++ b/dataSources/WSR/CORPORATE_ACTIONS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB75AC6-92A1-4EDC-BC18-2EDDF692C869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444F7E73-8BFF-4CF5-A8AD-39AB49C01A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="26 Dec 2023" sheetId="16" r:id="rId13"/>
     <sheet name="2 Jan 2024" sheetId="17" r:id="rId14"/>
     <sheet name="8 Jan 2024" sheetId="18" r:id="rId15"/>
+    <sheet name="15 Jan 2024" sheetId="19" r:id="rId16"/>
+    <sheet name="22 Jan 2024" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="145">
   <si>
     <t>Task Name</t>
   </si>
@@ -329,6 +331,7 @@
         <sz val="11"/>
         <color rgb="FF242424"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t> with Business</t>
@@ -511,7 +514,7 @@
         <sz val="11"/>
         <color rgb="FF242424"/>
         <rFont val="Segoe UI"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>izing and backlog refinement</t>
     </r>
@@ -533,13 +536,36 @@
   </si>
   <si>
     <t>Project Metrics</t>
+  </si>
+  <si>
+    <t>Prepared QA documents for SDLC#27036</t>
+  </si>
+  <si>
+    <t>No task</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sprint Review and Retrospective meeting</t>
+    </r>
+  </si>
+  <si>
+    <t>Sizing and Backlog Refinement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,12 +577,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,12 +611,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,6 +626,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -630,29 +661,56 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -885,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1053,6 +1111,59 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,39 +1454,39 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.88671875" style="4"/>
-    <col min="28" max="28" width="16.5546875" style="4" customWidth="1"/>
-    <col min="29" max="29" width="15.6640625" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.90625" style="4"/>
+    <col min="28" max="28" width="16.54296875" style="4" customWidth="1"/>
+    <col min="29" max="29" width="15.6328125" style="4" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>23</v>
       </c>
@@ -1501,7 +1612,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>33</v>
       </c>
@@ -1552,7 +1663,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>39</v>
       </c>
@@ -1603,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A5" s="29" t="s">
         <v>45</v>
       </c>
@@ -1642,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>51</v>
       </c>
@@ -1667,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>54</v>
       </c>
@@ -1684,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>56</v>
       </c>
@@ -1699,7 +1810,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
@@ -1722,36 +1833,36 @@
       <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
       <c r="A2" s="48" t="s">
         <v>113</v>
       </c>
@@ -1888,7 +1999,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A3" s="25" t="s">
         <v>114</v>
       </c>
@@ -1943,7 +2054,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
         <v>116</v>
       </c>
@@ -1990,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>117</v>
       </c>
@@ -2041,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>51</v>
       </c>
@@ -2092,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>119</v>
       </c>
@@ -2139,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -2180,7 +2291,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -2221,7 +2332,7 @@
       <c r="AB9" s="27"/>
       <c r="AC9" s="27"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="68"/>
       <c r="B10" s="67"/>
       <c r="C10" s="68"/>
@@ -2260,7 +2371,7 @@
       <c r="AB10" s="68"/>
       <c r="AC10" s="68"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="68"/>
       <c r="B11" s="67"/>
       <c r="C11" s="68"/>
@@ -2299,7 +2410,7 @@
       <c r="AB11" s="68"/>
       <c r="AC11" s="68"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="68"/>
@@ -2338,7 +2449,7 @@
       <c r="AB12" s="68"/>
       <c r="AC12" s="68"/>
     </row>
-    <row r="13" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="68"/>
       <c r="B13" s="67"/>
       <c r="C13" s="68"/>
@@ -2375,7 +2486,7 @@
       <c r="AB13" s="68"/>
       <c r="AC13" s="68"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="68"/>
       <c r="B14" s="67"/>
       <c r="C14" s="68"/>
@@ -2419,36 +2530,36 @@
       <selection activeCell="AB8" sqref="AB8:AC13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2520,7 +2631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>124</v>
       </c>
@@ -2577,7 +2688,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A3" s="50" t="s">
         <v>125</v>
       </c>
@@ -2628,7 +2739,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A4" s="50" t="s">
         <v>127</v>
       </c>
@@ -2679,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -2718,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -2757,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -2792,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -2825,7 +2936,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -2871,36 +2982,36 @@
       <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2972,7 +3083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A2" s="46" t="s">
         <v>128</v>
       </c>
@@ -3033,7 +3144,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A3" s="50" t="s">
         <v>130</v>
       </c>
@@ -3080,7 +3191,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
         <v>131</v>
       </c>
@@ -3123,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -3162,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -3201,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -3236,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -3269,7 +3380,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -3315,36 +3426,36 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3416,7 +3527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
       <c r="A2" s="46" t="s">
         <v>132</v>
       </c>
@@ -3477,7 +3588,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A3" s="50"/>
       <c r="B3" s="49"/>
       <c r="C3" s="68"/>
@@ -3520,7 +3631,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="50"/>
       <c r="B4" s="49"/>
       <c r="C4" s="68"/>
@@ -3559,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -3598,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -3637,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -3672,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -3705,7 +3816,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -3751,36 +3862,36 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -3867,7 +3978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A2" s="22" t="s">
         <v>133</v>
       </c>
@@ -3954,7 +4065,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A3" s="25" t="s">
         <v>135</v>
       </c>
@@ -4037,7 +4148,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A4" s="50"/>
       <c r="B4" s="49"/>
       <c r="C4" s="58" t="s">
@@ -4108,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="64"/>
       <c r="B5" s="58"/>
       <c r="C5" s="58" t="s">
@@ -4187,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="60"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58" t="s">
@@ -4270,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="60"/>
       <c r="B7" s="58"/>
       <c r="C7" s="58" t="s">
@@ -4345,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="60"/>
       <c r="B8" s="58"/>
       <c r="C8" s="58" t="s">
@@ -4418,7 +4529,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="60"/>
       <c r="B9" s="58"/>
       <c r="C9" s="58" t="s">
@@ -4500,42 +4611,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D327FA-72B4-4A76-B935-E5D6BDEA8522}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="8.88671875" style="8"/>
-    <col min="29" max="29" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="8.90625" style="8"/>
+    <col min="29" max="29" width="11.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4607,7 +4718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
       <c r="A2" s="55" t="s">
         <v>138</v>
       </c>
@@ -4672,7 +4783,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A3" s="25"/>
       <c r="B3" s="49"/>
       <c r="C3" s="68"/>
@@ -4721,7 +4832,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A4" s="50"/>
       <c r="B4" s="49"/>
       <c r="C4" s="68"/>
@@ -4766,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -4807,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -4850,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -4885,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -4918,7 +5029,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -4956,6 +5067,820 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8E4323-1A3B-47E5-B9C4-94C18FE4E234}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection sqref="A1:AC9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC1" s="74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="99.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="76">
+        <v>3</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="79">
+        <v>3</v>
+      </c>
+      <c r="F2" s="78"/>
+      <c r="G2" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="83">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="83">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="87"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC7" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B51CFD0-971E-4732-8C45-6859DCA71F83}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection sqref="A1:AC9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC1" s="74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="116" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="79">
+        <v>0</v>
+      </c>
+      <c r="F2" s="78"/>
+      <c r="G2" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="83">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="83">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="87"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC7" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD9A720-581D-4D51-808D-EF5903B25B73}">
   <sheetPr>
@@ -4967,36 +5892,36 @@
       <selection activeCell="AB8" sqref="AB8:AC11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5068,7 +5993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
         <v>57</v>
       </c>
@@ -5118,7 +6043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="42" t="s">
         <v>59</v>
       </c>
@@ -5169,7 +6094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
         <v>60</v>
       </c>
@@ -5214,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>51</v>
       </c>
@@ -5235,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="42" t="s">
         <v>62</v>
       </c>
@@ -5256,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
         <v>63</v>
       </c>
@@ -5273,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
         <v>64</v>
       </c>
@@ -5288,7 +6213,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
         <v>65</v>
       </c>
@@ -5303,7 +6228,7 @@
       <c r="AB9" s="27"/>
       <c r="AC9" s="27"/>
     </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>66</v>
       </c>
@@ -5311,7 +6236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="42" t="s">
         <v>67</v>
       </c>
@@ -5336,36 +6261,36 @@
       <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5437,7 +6362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>68</v>
       </c>
@@ -5491,7 +6416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>69</v>
       </c>
@@ -5542,7 +6467,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>71</v>
       </c>
@@ -5587,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="73.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="59" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="G5" s="39" t="s">
         <v>74</v>
@@ -5611,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -5631,7 +6556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="Y7" s="25"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
@@ -5642,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y8" s="26"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
@@ -5651,7 +6576,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
@@ -5674,36 +6599,36 @@
       <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5775,7 +6700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -5819,7 +6744,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
@@ -5859,7 +6784,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -5892,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
@@ -5913,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -5934,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="Y7" s="25"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
@@ -5945,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y8" s="26"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
@@ -5954,7 +6879,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
@@ -5980,36 +6905,36 @@
       <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6081,7 +7006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -6125,7 +7050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
@@ -6165,7 +7090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -6198,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
@@ -6219,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -6240,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="Y7" s="25"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
@@ -6251,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y8" s="26"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
@@ -6260,7 +7185,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
@@ -6286,36 +7211,36 @@
       <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6387,7 +7312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -6444,7 +7369,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -6495,7 +7420,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="68"/>
       <c r="B4" s="67"/>
       <c r="C4" s="68"/>
@@ -6538,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="68"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -6577,7 +7502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -6616,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -6651,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -6684,7 +7609,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -6733,35 +7658,35 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.90625" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6833,7 +7758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>86</v>
       </c>
@@ -6892,7 +7817,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>94</v>
       </c>
@@ -6926,7 +7851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>96</v>
       </c>
@@ -6953,7 +7878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="G5" s="3" t="s">
         <v>98</v>
       </c>
@@ -6974,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="G6" s="3" t="s">
         <v>99</v>
       </c>
@@ -6998,7 +7923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="Y7" s="25"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
@@ -7009,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y8" s="26"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
@@ -7018,7 +7943,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
@@ -7027,15 +7952,15 @@
       <c r="AB9" s="27"/>
       <c r="AC9" s="27"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7052,36 +7977,36 @@
       <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7153,7 +8078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
@@ -7210,7 +8135,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -7261,7 +8186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
@@ -7308,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>104</v>
       </c>
@@ -7351,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -7390,7 +8315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -7425,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -7458,7 +8383,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -7507,36 +8432,36 @@
       <selection activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7608,7 +8533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>105</v>
       </c>
@@ -7671,7 +8596,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="67"/>
       <c r="C3" s="68"/>
@@ -7722,7 +8647,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="67"/>
       <c r="C4" s="68"/>
@@ -7773,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -7816,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -7855,7 +8780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -7890,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -7923,7 +8848,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -8139,18 +9064,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8173,18 +9098,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F7456AA-E25E-473F-878B-9737789BB8F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9967719E-0079-45C5-80F3-9A16D1595D17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F7456AA-E25E-473F-878B-9737789BB8F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/CORPORATE_ACTIONS.xlsx
+++ b/dataSources/WSR/CORPORATE_ACTIONS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444F7E73-8BFF-4CF5-A8AD-39AB49C01A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D563242-108C-4C93-B908-748CACCA7E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="145">
   <si>
     <t>Task Name</t>
   </si>
@@ -1454,39 +1454,39 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="4"/>
-    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="4"/>
-    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="4"/>
-    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="4"/>
-    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.90625" style="4"/>
-    <col min="28" max="28" width="16.54296875" style="4" customWidth="1"/>
-    <col min="29" max="29" width="15.6328125" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="8.90625" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.88671875" style="4"/>
+    <col min="28" max="28" width="16.5546875" style="4" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" style="4" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>23</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>33</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>39</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A5" s="29" t="s">
         <v>45</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>51</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>54</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>56</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
@@ -1833,36 +1833,36 @@
       <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="8"/>
-    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="8"/>
-    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="8"/>
-    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="8"/>
-    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="48" t="s">
         <v>113</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="25" t="s">
         <v>114</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="25" t="s">
         <v>116</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>117</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>51</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>119</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -2291,7 +2291,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -2332,7 +2332,7 @@
       <c r="AB9" s="27"/>
       <c r="AC9" s="27"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="68"/>
       <c r="B10" s="67"/>
       <c r="C10" s="68"/>
@@ -2371,7 +2371,7 @@
       <c r="AB10" s="68"/>
       <c r="AC10" s="68"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="68"/>
       <c r="B11" s="67"/>
       <c r="C11" s="68"/>
@@ -2410,7 +2410,7 @@
       <c r="AB11" s="68"/>
       <c r="AC11" s="68"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="68"/>
@@ -2449,7 +2449,7 @@
       <c r="AB12" s="68"/>
       <c r="AC12" s="68"/>
     </row>
-    <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A13" s="68"/>
       <c r="B13" s="67"/>
       <c r="C13" s="68"/>
@@ -2486,7 +2486,7 @@
       <c r="AB13" s="68"/>
       <c r="AC13" s="68"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="68"/>
       <c r="B14" s="67"/>
       <c r="C14" s="68"/>
@@ -2530,36 +2530,36 @@
       <selection activeCell="AB8" sqref="AB8:AC13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="8"/>
-    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="8"/>
-    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="8"/>
-    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="8"/>
-    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>124</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="50" t="s">
         <v>125</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="50" t="s">
         <v>127</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -2936,7 +2936,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -2982,36 +2982,36 @@
       <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="8"/>
-    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="8"/>
-    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="8"/>
-    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="8"/>
-    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A2" s="46" t="s">
         <v>128</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="50" t="s">
         <v>130</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>131</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -3312,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -3380,7 +3380,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -3422,40 +3422,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6FAE2C-B0F5-47D8-854F-03F354215233}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="8"/>
-    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="8"/>
-    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="8"/>
-    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="8"/>
-    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3520,14 +3520,14 @@
         <v>20</v>
       </c>
       <c r="AA1" s="21"/>
-      <c r="AB1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AB1" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC1" s="74" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="46" t="s">
         <v>132</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="50"/>
       <c r="B3" s="49"/>
       <c r="C3" s="68"/>
@@ -3631,7 +3631,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="49"/>
       <c r="C4" s="68"/>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -3816,7 +3816,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -3858,40 +3858,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6724893F-E8A3-4F47-9556-9D519FBD597B}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="8"/>
-    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="8"/>
-    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="8"/>
-    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="8"/>
-    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -3971,14 +3971,14 @@
         <v>20</v>
       </c>
       <c r="AA1" s="21"/>
-      <c r="AB1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AB1" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC1" s="74" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
         <v>133</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="25" t="s">
         <v>135</v>
       </c>
@@ -4075,8 +4075,6 @@
       <c r="C3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
       <c r="F3" s="58" t="s">
         <v>27</v>
       </c>
@@ -4148,14 +4146,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="50"/>
       <c r="B4" s="49"/>
       <c r="C4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
       <c r="F4" s="58" t="s">
         <v>27</v>
       </c>
@@ -4219,14 +4215,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="64"/>
       <c r="B5" s="58"/>
       <c r="C5" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
       <c r="F5" s="58" t="s">
         <v>27</v>
       </c>
@@ -4298,18 +4292,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="60"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" s="58" t="s">
         <v>27</v>
       </c>
@@ -4381,16 +4369,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="60"/>
       <c r="B7" s="58"/>
       <c r="C7" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="58" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="58" t="s">
@@ -4456,18 +4438,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="60"/>
       <c r="B8" s="58"/>
       <c r="C8" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="58" t="s">
         <v>27</v>
       </c>
@@ -4529,16 +4505,10 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="60"/>
       <c r="B9" s="58"/>
       <c r="C9" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="58" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="58" t="s">
@@ -4611,42 +4581,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D327FA-72B4-4A76-B935-E5D6BDEA8522}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="8"/>
-    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="8"/>
-    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="8"/>
-    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="8"/>
-    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="8.90625" style="8"/>
-    <col min="29" max="29" width="11.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.90625" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="8.88671875" style="8"/>
+    <col min="29" max="29" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4718,7 +4688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="55" t="s">
         <v>138</v>
       </c>
@@ -4783,7 +4753,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="25"/>
       <c r="B3" s="49"/>
       <c r="C3" s="68"/>
@@ -4832,7 +4802,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="50"/>
       <c r="B4" s="49"/>
       <c r="C4" s="68"/>
@@ -4877,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -4918,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -4961,7 +4931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -4996,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -5029,7 +4999,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -5075,9 +5045,9 @@
       <selection sqref="A1:AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
@@ -5154,7 +5124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="99.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:29" ht="101.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="75" t="s">
         <v>141</v>
       </c>
@@ -5211,7 +5181,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="84"/>
       <c r="B3" s="85"/>
       <c r="C3" s="78"/>
@@ -5254,7 +5224,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="87"/>
       <c r="B4" s="85"/>
       <c r="C4" s="78"/>
@@ -5293,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="79"/>
       <c r="C5" s="78"/>
@@ -5332,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="78"/>
       <c r="B6" s="79"/>
       <c r="C6" s="78"/>
@@ -5371,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="78"/>
       <c r="B7" s="79"/>
       <c r="C7" s="78"/>
@@ -5406,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="78"/>
@@ -5437,7 +5407,7 @@
       <c r="AB8" s="89"/>
       <c r="AC8" s="89"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="78"/>
       <c r="B9" s="79"/>
       <c r="C9" s="78"/>
@@ -5477,13 +5447,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B51CFD0-971E-4732-8C45-6859DCA71F83}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection sqref="A1:AC9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
@@ -5560,11 +5530,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="116" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:29" ht="118.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="79">
+        <v>0</v>
+      </c>
       <c r="C2" s="78"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
@@ -5615,9 +5587,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="78"/>
       <c r="D3" s="78"/>
       <c r="E3" s="79"/>
@@ -5662,9 +5634,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="87"/>
-      <c r="B4" s="85"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="78"/>
       <c r="D4" s="78"/>
       <c r="E4" s="79"/>
@@ -5701,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="79"/>
       <c r="C5" s="78"/>
@@ -5740,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="78"/>
       <c r="B6" s="79"/>
       <c r="C6" s="78"/>
@@ -5779,7 +5751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="78"/>
       <c r="B7" s="79"/>
       <c r="C7" s="78"/>
@@ -5814,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="78"/>
@@ -5845,7 +5817,7 @@
       <c r="AB8" s="89"/>
       <c r="AC8" s="89"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="78"/>
       <c r="B9" s="79"/>
       <c r="C9" s="78"/>
@@ -5892,36 +5864,36 @@
       <selection activeCell="AB8" sqref="AB8:AC11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="4"/>
-    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="4"/>
-    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="4"/>
-    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="4"/>
-    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5993,7 +5965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A2" s="42" t="s">
         <v>57</v>
       </c>
@@ -6043,7 +6015,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>59</v>
       </c>
@@ -6094,7 +6066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>60</v>
       </c>
@@ -6139,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>51</v>
       </c>
@@ -6160,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>62</v>
       </c>
@@ -6181,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>63</v>
       </c>
@@ -6198,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>64</v>
       </c>
@@ -6213,7 +6185,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>65</v>
       </c>
@@ -6228,7 +6200,7 @@
       <c r="AB9" s="27"/>
       <c r="AC9" s="27"/>
     </row>
-    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>66</v>
       </c>
@@ -6236,7 +6208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>67</v>
       </c>
@@ -6261,36 +6233,36 @@
       <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="4"/>
-    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="4"/>
-    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="4"/>
-    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="4"/>
-    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6362,7 +6334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>68</v>
       </c>
@@ -6416,7 +6388,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>69</v>
       </c>
@@ -6467,7 +6439,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>71</v>
       </c>
@@ -6512,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="59" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="73.2" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="G5" s="39" t="s">
         <v>74</v>
@@ -6536,7 +6508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -6556,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Y7" s="25"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
@@ -6567,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y8" s="26"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
@@ -6576,7 +6548,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
@@ -6599,36 +6571,36 @@
       <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="4"/>
-    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="4"/>
-    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="4"/>
-    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="4"/>
-    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6700,7 +6672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -6744,7 +6716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
@@ -6784,7 +6756,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -6817,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
@@ -6838,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -6859,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Y7" s="25"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
@@ -6870,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y8" s="26"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
@@ -6879,7 +6851,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
@@ -6905,36 +6877,36 @@
       <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="4"/>
-    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="4"/>
-    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="4"/>
-    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="4"/>
-    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7006,7 +6978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -7050,7 +7022,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
@@ -7090,7 +7062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -7123,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
@@ -7144,7 +7116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -7165,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Y7" s="25"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
@@ -7176,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y8" s="26"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
@@ -7185,7 +7157,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
@@ -7211,36 +7183,36 @@
       <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="8"/>
-    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="8"/>
-    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="8"/>
-    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="8"/>
-    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7312,7 +7284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -7369,7 +7341,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,7 +7392,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="68"/>
       <c r="B4" s="67"/>
       <c r="C4" s="68"/>
@@ -7463,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="68"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -7502,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -7541,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -7576,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -7609,7 +7581,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -7658,35 +7630,35 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="4"/>
-    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="4"/>
-    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="4"/>
-    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.90625" style="4"/>
-    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="4"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -7758,7 +7730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>86</v>
       </c>
@@ -7817,7 +7789,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>94</v>
       </c>
@@ -7851,7 +7823,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>96</v>
       </c>
@@ -7878,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="G5" s="3" t="s">
         <v>98</v>
       </c>
@@ -7899,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G6" s="3" t="s">
         <v>99</v>
       </c>
@@ -7923,7 +7895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Y7" s="25"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="24"/>
@@ -7934,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="Y8" s="26"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="28" t="s">
@@ -7943,7 +7915,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="27" t="s">
@@ -7952,15 +7924,15 @@
       <c r="AB9" s="27"/>
       <c r="AC9" s="27"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7977,36 +7949,36 @@
       <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="8"/>
-    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="8"/>
-    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="8"/>
-    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="8"/>
-    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8078,7 +8050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
@@ -8135,7 +8107,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -8186,7 +8158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
@@ -8233,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>104</v>
       </c>
@@ -8276,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -8315,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -8350,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -8383,7 +8355,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -8432,36 +8404,36 @@
       <selection activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="8"/>
-    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="8"/>
-    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="8"/>
-    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="8"/>
-    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="8"/>
+    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="8"/>
+    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="8"/>
+    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="8"/>
+    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="8"/>
+    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8533,7 +8505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>105</v>
       </c>
@@ -8596,7 +8568,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="67"/>
       <c r="C3" s="68"/>
@@ -8647,7 +8619,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="67"/>
       <c r="C4" s="68"/>
@@ -8698,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -8741,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
@@ -8780,7 +8752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
@@ -8815,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
@@ -8848,7 +8820,7 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>

--- a/dataSources/WSR/CORPORATE_ACTIONS.xlsx
+++ b/dataSources/WSR/CORPORATE_ACTIONS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ceslimited01-my.sharepoint.com/personal/meenakshi_kasi_cesltd_com/Documents/Oaktree/WSR_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EED1E7A-557A-4AA5-9FE7-606BB14DEC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{6EED1E7A-557A-4AA5-9FE7-606BB14DEC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FFDC4BD-3806-443A-9827-062EED96DD3B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -30,6 +30,9 @@
     <sheet name="8 Jan 2024" sheetId="18" r:id="rId15"/>
     <sheet name="15 Jan 2024" sheetId="19" r:id="rId16"/>
     <sheet name="22 Jan 2024" sheetId="20" r:id="rId17"/>
+    <sheet name="29 Jan 2024" sheetId="21" r:id="rId18"/>
+    <sheet name="5 Feb 2024" sheetId="22" r:id="rId19"/>
+    <sheet name="12 Feb 2024" sheetId="23" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="144">
   <si>
     <t>Task Name</t>
   </si>
@@ -541,6 +544,54 @@
   </si>
   <si>
     <t>Automation coverage</t>
+  </si>
+  <si>
+    <t>HICA-3124 execution</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sizing and Backlog Refinement</t>
+    </r>
+  </si>
+  <si>
+    <t>QA document prepared for SDLC-27115</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Sprint Review and Retrospective meeting</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Attend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Sprint sizing session</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -925,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1134,6 +1185,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1421,43 +1475,43 @@
   </sheetPr>
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.88671875" style="4"/>
-    <col min="28" max="28" width="16.5546875" style="4" customWidth="1"/>
-    <col min="29" max="29" width="15.6640625" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.90625" style="4"/>
+    <col min="28" max="28" width="16.54296875" style="4" customWidth="1"/>
+    <col min="29" max="29" width="15.6328125" style="4" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1583,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="27" t="s">
         <v>19</v>
       </c>
@@ -1579,11 +1633,11 @@
       <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="76">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="27" t="s">
         <v>27</v>
       </c>
@@ -1630,11 +1684,11 @@
       <c r="AB3" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="21">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AC3" s="76">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
         <v>31</v>
       </c>
@@ -1681,11 +1735,11 @@
       <c r="AB4" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="27" t="s">
         <v>35</v>
       </c>
@@ -1720,11 +1774,11 @@
       <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="27" t="s">
         <v>39</v>
       </c>
@@ -1745,11 +1799,11 @@
       <c r="AB6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AC6" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="27" t="s">
         <v>40</v>
       </c>
@@ -1762,11 +1816,11 @@
       <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="27" t="s">
         <v>41</v>
       </c>
@@ -1781,7 +1835,7 @@
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y9" s="24"/>
       <c r="Z9" s="25"/>
       <c r="AA9" s="25" t="s">
@@ -1801,39 +1855,39 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB7"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1905,7 +1959,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="33.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="46" t="s">
         <v>98</v>
       </c>
@@ -1966,11 +2020,11 @@
       <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="76">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
@@ -2021,11 +2075,11 @@
       <c r="AB3" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="21">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="AC3" s="76">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="23" t="s">
         <v>101</v>
       </c>
@@ -2068,11 +2122,11 @@
       <c r="AB4" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="23" t="s">
         <v>102</v>
       </c>
@@ -2119,11 +2173,11 @@
       <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
         <v>39</v>
       </c>
@@ -2170,11 +2224,11 @@
       <c r="AB6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="76">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="23" t="s">
         <v>104</v>
       </c>
@@ -2217,11 +2271,11 @@
       <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="65"/>
       <c r="B8" s="64"/>
       <c r="C8" s="65"/>
@@ -2262,7 +2316,7 @@
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="65"/>
       <c r="B9" s="64"/>
       <c r="C9" s="65"/>
@@ -2303,7 +2357,7 @@
       <c r="AB9" s="25"/>
       <c r="AC9" s="25"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="65"/>
       <c r="B10" s="64"/>
       <c r="C10" s="65"/>
@@ -2342,7 +2396,7 @@
       <c r="AB10" s="65"/>
       <c r="AC10" s="65"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="65"/>
       <c r="B11" s="64"/>
       <c r="C11" s="65"/>
@@ -2381,7 +2435,7 @@
       <c r="AB11" s="65"/>
       <c r="AC11" s="65"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="65"/>
       <c r="B12" s="64"/>
       <c r="C12" s="65"/>
@@ -2420,7 +2474,7 @@
       <c r="AB12" s="65"/>
       <c r="AC12" s="65"/>
     </row>
-    <row r="13" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="65"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
@@ -2457,7 +2511,7 @@
       <c r="AB13" s="65"/>
       <c r="AC13" s="65"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="65"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -2498,39 +2552,39 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2602,7 +2656,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>109</v>
       </c>
@@ -2655,11 +2709,11 @@
       <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="76">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.45">
       <c r="A3" s="48" t="s">
         <v>110</v>
       </c>
@@ -2706,11 +2760,11 @@
       <c r="AB3" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="21">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+      <c r="AC3" s="76">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.45">
       <c r="A4" s="48" t="s">
         <v>112</v>
       </c>
@@ -2757,11 +2811,11 @@
       <c r="AB4" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="64"/>
       <c r="C5" s="65"/>
@@ -2796,11 +2850,11 @@
       <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="65"/>
       <c r="B6" s="64"/>
       <c r="C6" s="65"/>
@@ -2835,11 +2889,11 @@
       <c r="AB6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="76">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="65"/>
       <c r="B7" s="64"/>
       <c r="C7" s="65"/>
@@ -2870,11 +2924,11 @@
       <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="65"/>
       <c r="B8" s="64"/>
       <c r="C8" s="65"/>
@@ -2907,7 +2961,7 @@
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="65"/>
       <c r="B9" s="64"/>
       <c r="C9" s="65"/>
@@ -2950,39 +3004,39 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3054,7 +3108,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="44" t="s">
         <v>113</v>
       </c>
@@ -3111,11 +3165,11 @@
       <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="76">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="30.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="48" t="s">
         <v>115</v>
       </c>
@@ -3158,11 +3212,11 @@
       <c r="AB3" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="21">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AC3" s="76">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
         <v>116</v>
       </c>
@@ -3201,11 +3255,11 @@
       <c r="AB4" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="64"/>
       <c r="C5" s="65"/>
@@ -3240,11 +3294,11 @@
       <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="65"/>
       <c r="B6" s="64"/>
       <c r="C6" s="65"/>
@@ -3279,11 +3333,11 @@
       <c r="AB6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="76">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="65"/>
       <c r="B7" s="64"/>
       <c r="C7" s="65"/>
@@ -3314,11 +3368,11 @@
       <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="65"/>
       <c r="B8" s="64"/>
       <c r="C8" s="65"/>
@@ -3351,7 +3405,7 @@
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="65"/>
       <c r="B9" s="64"/>
       <c r="C9" s="65"/>
@@ -3394,39 +3448,39 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3498,7 +3552,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="33.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="44" t="s">
         <v>117</v>
       </c>
@@ -3555,11 +3609,11 @@
       <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="76">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="48"/>
       <c r="B3" s="47"/>
       <c r="C3" s="65"/>
@@ -3598,11 +3652,11 @@
       <c r="AB3" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="21">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC3" s="76">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="48"/>
       <c r="B4" s="47"/>
       <c r="C4" s="65"/>
@@ -3637,11 +3691,11 @@
       <c r="AB4" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="64"/>
       <c r="C5" s="65"/>
@@ -3676,11 +3730,11 @@
       <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="65"/>
       <c r="B6" s="64"/>
       <c r="C6" s="65"/>
@@ -3715,11 +3769,11 @@
       <c r="AB6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="76">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="65"/>
       <c r="B7" s="64"/>
       <c r="C7" s="65"/>
@@ -3750,11 +3804,11 @@
       <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="65"/>
       <c r="B8" s="64"/>
       <c r="C8" s="65"/>
@@ -3787,7 +3841,7 @@
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="65"/>
       <c r="B9" s="64"/>
       <c r="C9" s="65"/>
@@ -3830,39 +3884,39 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
@@ -3949,7 +4003,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20" t="s">
         <v>118</v>
       </c>
@@ -4032,11 +4086,11 @@
       <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="76">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="23" t="s">
         <v>120</v>
       </c>
@@ -4113,11 +4167,11 @@
       <c r="AB3" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="21">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="AC3" s="76">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="48"/>
       <c r="B4" s="47"/>
       <c r="C4" s="56" t="s">
@@ -4182,11 +4236,11 @@
       <c r="AB4" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="61"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56" t="s">
@@ -4259,11 +4313,11 @@
       <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="58"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56" t="s">
@@ -4336,11 +4390,11 @@
       <c r="AB6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="76">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="58"/>
       <c r="B7" s="56"/>
       <c r="C7" s="56" t="s">
@@ -4405,11 +4459,11 @@
       <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="58"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56" t="s">
@@ -4476,7 +4530,7 @@
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="58"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56" t="s">
@@ -4553,41 +4607,41 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="8.88671875" style="8"/>
-    <col min="29" max="29" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="8.90625" style="8"/>
+    <col min="29" max="29" width="11.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4659,7 +4713,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="33.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="53" t="s">
         <v>123</v>
       </c>
@@ -4720,11 +4774,11 @@
       <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="76">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="23"/>
       <c r="B3" s="47"/>
       <c r="C3" s="65"/>
@@ -4769,11 +4823,11 @@
       <c r="AB3" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="21">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="AC3" s="76">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="48"/>
       <c r="B4" s="47"/>
       <c r="C4" s="65"/>
@@ -4814,11 +4868,11 @@
       <c r="AB4" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="64"/>
       <c r="C5" s="65"/>
@@ -4855,11 +4909,11 @@
       <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="65"/>
       <c r="B6" s="64"/>
       <c r="C6" s="65"/>
@@ -4898,11 +4952,11 @@
       <c r="AB6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="76">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="65"/>
       <c r="B7" s="64"/>
       <c r="C7" s="65"/>
@@ -4933,11 +4987,11 @@
       <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="65"/>
       <c r="B8" s="64"/>
       <c r="C8" s="65"/>
@@ -4970,7 +5024,7 @@
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="65"/>
       <c r="B9" s="64"/>
       <c r="C9" s="65"/>
@@ -5013,12 +5067,12 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
@@ -5094,7 +5148,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="101.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="99.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="69" t="s">
         <v>125</v>
       </c>
@@ -5151,7 +5205,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="77"/>
       <c r="B3" s="78"/>
       <c r="C3" s="72"/>
@@ -5191,10 +5245,10 @@
         <v>134</v>
       </c>
       <c r="AC3" s="76">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="80"/>
       <c r="B4" s="78"/>
       <c r="C4" s="72"/>
@@ -5233,7 +5287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="73"/>
       <c r="C5" s="72"/>
@@ -5272,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="72"/>
       <c r="B6" s="73"/>
       <c r="C6" s="72"/>
@@ -5311,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="72"/>
       <c r="B7" s="73"/>
       <c r="C7" s="72"/>
@@ -5346,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="72"/>
       <c r="B8" s="73"/>
       <c r="C8" s="72"/>
@@ -5377,7 +5431,7 @@
       <c r="AB8" s="82"/>
       <c r="AC8" s="82"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="C9" s="72"/>
@@ -5418,12 +5472,12 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB7"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
@@ -5499,7 +5553,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="118.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="116" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="69" t="s">
         <v>126</v>
       </c>
@@ -5556,7 +5610,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="77"/>
       <c r="B3" s="73"/>
       <c r="C3" s="72"/>
@@ -5600,10 +5654,10 @@
         <v>134</v>
       </c>
       <c r="AC3" s="76">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="80"/>
       <c r="B4" s="73"/>
       <c r="C4" s="72"/>
@@ -5642,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="73"/>
       <c r="C5" s="72"/>
@@ -5681,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="72"/>
       <c r="B6" s="73"/>
       <c r="C6" s="72"/>
@@ -5720,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="72"/>
       <c r="B7" s="73"/>
       <c r="C7" s="72"/>
@@ -5755,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="72"/>
       <c r="B8" s="73"/>
       <c r="C8" s="72"/>
@@ -5786,7 +5840,7 @@
       <c r="AB8" s="82"/>
       <c r="AC8" s="82"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="C9" s="72"/>
@@ -5822,6 +5876,820 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6811428A-86E9-4DDA-A637-BCA347994F88}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="83" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="86">
+        <v>5</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="73">
+        <v>6</v>
+      </c>
+      <c r="F2" s="72"/>
+      <c r="G2" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z2" s="76">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="71"/>
+      <c r="AB2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC2" s="76">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="80">
+        <v>1</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="60"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z3" s="76">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="71"/>
+      <c r="AB3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC3" s="76">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="77"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z4" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="71"/>
+      <c r="AB4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z5" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="71"/>
+      <c r="AB5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z6" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="71"/>
+      <c r="AB6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC6" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC119B22-809D-428A-8CFF-05367B57EA98}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="116" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="73">
+        <v>0</v>
+      </c>
+      <c r="F2" s="72"/>
+      <c r="G2" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z2" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="71"/>
+      <c r="AB2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC2" s="76">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z3" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="71"/>
+      <c r="AB3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC3" s="76">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="80"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z4" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="71"/>
+      <c r="AB4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z5" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="71"/>
+      <c r="AB5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z6" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="71"/>
+      <c r="AB6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC6" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD9A720-581D-4D51-808D-EF5903B25B73}">
   <sheetPr>
@@ -5830,39 +6698,39 @@
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB7"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5934,7 +6802,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="40" t="s">
         <v>42</v>
       </c>
@@ -5980,11 +6848,11 @@
       <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="76">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="40" t="s">
         <v>44</v>
       </c>
@@ -6031,11 +6899,11 @@
       <c r="AB3" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="21">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AC3" s="76">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="40" t="s">
         <v>45</v>
       </c>
@@ -6076,11 +6944,11 @@
       <c r="AB4" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="40" t="s">
         <v>39</v>
       </c>
@@ -6097,11 +6965,11 @@
       <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="40" t="s">
         <v>47</v>
       </c>
@@ -6118,11 +6986,11 @@
       <c r="AB6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AC6" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="41" t="s">
         <v>48</v>
       </c>
@@ -6135,11 +7003,11 @@
       <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="42" t="s">
         <v>49</v>
       </c>
@@ -6154,7 +7022,7 @@
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
         <v>50</v>
       </c>
@@ -6169,7 +7037,7 @@
       <c r="AB9" s="25"/>
       <c r="AC9" s="25"/>
     </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="40" t="s">
         <v>51</v>
       </c>
@@ -6177,7 +7045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
         <v>52</v>
       </c>
@@ -6187,6 +7055,407 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB6DB1B-8A2C-4F9C-8732-F5D04824877B}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="66.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="73">
+        <v>0</v>
+      </c>
+      <c r="F2" s="72"/>
+      <c r="G2" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z2" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="71"/>
+      <c r="AB2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC2" s="76">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z3" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="71"/>
+      <c r="AB3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC3" s="76">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="80"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z4" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="71"/>
+      <c r="AB4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z5" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="71"/>
+      <c r="AB5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z6" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="71"/>
+      <c r="AB6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC6" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6199,39 +7468,39 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6303,7 +7572,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="27" t="s">
         <v>53</v>
       </c>
@@ -6353,11 +7622,11 @@
       <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="76">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="27" t="s">
         <v>54</v>
       </c>
@@ -6404,11 +7673,11 @@
       <c r="AB3" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="21">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AC3" s="76">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
         <v>56</v>
       </c>
@@ -6449,11 +7718,11 @@
       <c r="AB4" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3"/>
       <c r="G5" s="37" t="s">
         <v>59</v>
@@ -6473,11 +7742,11 @@
       <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -6493,22 +7762,22 @@
       <c r="AB6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC6" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y7" s="23"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="22"/>
       <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y8" s="24"/>
       <c r="Z8" s="25"/>
       <c r="AA8" s="26" t="s">
@@ -6517,7 +7786,7 @@
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y9" s="24"/>
       <c r="Z9" s="25"/>
       <c r="AA9" s="25" t="s">
@@ -6537,39 +7806,39 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6641,7 +7910,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
@@ -6681,11 +7950,11 @@
       <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="76">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
@@ -6721,11 +7990,11 @@
       <c r="AB3" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="21">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC3" s="76">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -6754,11 +8023,11 @@
       <c r="AB4" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -6775,11 +8044,11 @@
       <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -6796,22 +8065,22 @@
       <c r="AB6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC6" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y7" s="23"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="22"/>
       <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y8" s="24"/>
       <c r="Z8" s="25"/>
       <c r="AA8" s="26" t="s">
@@ -6820,7 +8089,7 @@
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y9" s="24"/>
       <c r="Z9" s="25"/>
       <c r="AA9" s="25" t="s">
@@ -6843,39 +8112,39 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6947,7 +8216,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
@@ -6987,11 +8256,11 @@
       <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="76">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
@@ -7027,11 +8296,11 @@
       <c r="AB3" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="21">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC3" s="76">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -7060,11 +8329,11 @@
       <c r="AB4" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -7081,11 +8350,11 @@
       <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -7102,22 +8371,22 @@
       <c r="AB6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC6" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y7" s="23"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="22"/>
       <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y8" s="24"/>
       <c r="Z8" s="25"/>
       <c r="AA8" s="26" t="s">
@@ -7126,7 +8395,7 @@
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y9" s="24"/>
       <c r="Z9" s="25"/>
       <c r="AA9" s="25" t="s">
@@ -7149,39 +8418,39 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB7"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7253,7 +8522,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -7306,11 +8575,11 @@
       <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="76">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
@@ -7357,11 +8626,11 @@
       <c r="AB3" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="21">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC3" s="76">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="65"/>
       <c r="B4" s="64"/>
       <c r="C4" s="65"/>
@@ -7400,11 +8669,11 @@
       <c r="AB4" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="65"/>
       <c r="B5" s="64"/>
       <c r="C5" s="65"/>
@@ -7439,11 +8708,11 @@
       <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="65"/>
       <c r="B6" s="64"/>
       <c r="C6" s="65"/>
@@ -7478,11 +8747,11 @@
       <c r="AB6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC6" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="65"/>
       <c r="B7" s="64"/>
       <c r="C7" s="65"/>
@@ -7513,11 +8782,11 @@
       <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="65"/>
       <c r="B8" s="64"/>
       <c r="C8" s="65"/>
@@ -7550,7 +8819,7 @@
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="65"/>
       <c r="B9" s="64"/>
       <c r="C9" s="65"/>
@@ -7596,38 +8865,38 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.90625" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -7699,7 +8968,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>71</v>
       </c>
@@ -7754,11 +9023,11 @@
       <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="76">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>79</v>
       </c>
@@ -7788,11 +9057,11 @@
       <c r="AB3" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="21">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AC3" s="76">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>81</v>
       </c>
@@ -7815,11 +9084,11 @@
       <c r="AB4" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G5" s="3" t="s">
         <v>83</v>
       </c>
@@ -7836,11 +9105,11 @@
       <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G6" s="3" t="s">
         <v>84</v>
       </c>
@@ -7860,22 +9129,22 @@
       <c r="AB6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="76">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y7" s="23"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="22"/>
       <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y8" s="24"/>
       <c r="Z8" s="25"/>
       <c r="AA8" s="26" t="s">
@@ -7884,7 +9153,7 @@
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y9" s="24"/>
       <c r="Z9" s="25"/>
       <c r="AA9" s="25" t="s">
@@ -7893,15 +9162,15 @@
       <c r="AB9" s="25"/>
       <c r="AC9" s="25"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7915,39 +9184,39 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB7"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8019,7 +9288,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -8072,11 +9341,11 @@
       <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="76">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -8123,11 +9392,11 @@
       <c r="AB3" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="21">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC3" s="76">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
@@ -8170,11 +9439,11 @@
       <c r="AB4" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>89</v>
       </c>
@@ -8213,11 +9482,11 @@
       <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="65"/>
       <c r="B6" s="64"/>
       <c r="C6" s="65"/>
@@ -8252,11 +9521,11 @@
       <c r="AB6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="76">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="65"/>
       <c r="B7" s="64"/>
       <c r="C7" s="65"/>
@@ -8287,11 +9556,11 @@
       <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="65"/>
       <c r="B8" s="64"/>
       <c r="C8" s="65"/>
@@ -8324,7 +9593,7 @@
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="65"/>
       <c r="B9" s="64"/>
       <c r="C9" s="65"/>
@@ -8370,39 +9639,39 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="8"/>
-    <col min="4" max="4" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="8"/>
-    <col min="7" max="7" width="73.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="89.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="8"/>
-    <col min="18" max="18" width="65.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="8"/>
+    <col min="4" max="4" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="8"/>
+    <col min="7" max="7" width="73.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="8"/>
+    <col min="12" max="12" width="89.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="8"/>
+    <col min="18" max="18" width="65.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8474,7 +9743,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="44" t="s">
         <v>90</v>
       </c>
@@ -8533,11 +9802,11 @@
       <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="76">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="64"/>
       <c r="C3" s="65"/>
@@ -8584,11 +9853,11 @@
       <c r="AB3" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="21">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="AC3" s="76">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
       <c r="B4" s="64"/>
       <c r="C4" s="65"/>
@@ -8635,11 +9904,11 @@
       <c r="AB4" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="64"/>
       <c r="C5" s="65"/>
@@ -8678,11 +9947,11 @@
       <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="65"/>
       <c r="B6" s="64"/>
       <c r="C6" s="65"/>
@@ -8717,11 +9986,11 @@
       <c r="AB6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="76">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="65"/>
       <c r="B7" s="64"/>
       <c r="C7" s="65"/>
@@ -8752,11 +10021,11 @@
       <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="65"/>
       <c r="B8" s="64"/>
       <c r="C8" s="65"/>
@@ -8789,7 +10058,7 @@
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="65"/>
       <c r="B9" s="64"/>
       <c r="C9" s="65"/>
@@ -8828,21 +10097,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -9019,24 +10273,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F7456AA-E25E-473F-878B-9737789BB8F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9967719E-0079-45C5-80F3-9A16D1595D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B85DAC82-6D37-40D8-872F-229E61782A4D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9053,4 +10305,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9967719E-0079-45C5-80F3-9A16D1595D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F7456AA-E25E-473F-878B-9737789BB8F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>